--- a/Case/CS3/FIN521_Case3.xlsx
+++ b/Case/CS3/FIN521_Case3.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="3" r:id="rId1"/>
-    <sheet name="Q2" sheetId="1" r:id="rId2"/>
-    <sheet name="Q4" sheetId="2" r:id="rId3"/>
+    <sheet name="Comps" sheetId="4" r:id="rId2"/>
+    <sheet name="Q2" sheetId="1" r:id="rId3"/>
+    <sheet name="Q4" sheetId="2" r:id="rId4"/>
+    <sheet name="Q6" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="mrp">Parameters!$C$3</definedName>
+    <definedName name="mve">Parameters!$C$8</definedName>
     <definedName name="rf">Parameters!$C$2</definedName>
     <definedName name="tax">Parameters!$C$4</definedName>
   </definedNames>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
   <si>
     <t>Cash &amp; Cash equivalents</t>
   </si>
@@ -46,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shareholder's equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Market Leverage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shareholder's Equity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>D / (D + E)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +134,146 @@
   </si>
   <si>
     <t>Key Driver: Captial Structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project:</t>
+  </si>
+  <si>
+    <t>MIDLAND ENERGY RESOURCES</t>
+  </si>
+  <si>
+    <t>Analysis:</t>
+  </si>
+  <si>
+    <t>Comparable Companies</t>
+  </si>
+  <si>
+    <t>Draft:</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Footer:</t>
+  </si>
+  <si>
+    <t>Harvard Business Publishing</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>LTM</t>
+  </si>
+  <si>
+    <t>Exploration &amp; Production:</t>
+  </si>
+  <si>
+    <t>Market Value</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>D/E</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>Jackson Energy, Inc.</t>
+  </si>
+  <si>
+    <t>Wide Palin Petroleum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corsicana Energy Corp. </t>
+  </si>
+  <si>
+    <t>Worthington Petroleum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Refining &amp; Marketing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bexar Energy, Inc. </t>
+  </si>
+  <si>
+    <t>Kirk Corp.</t>
+  </si>
+  <si>
+    <t>White Point Energy</t>
+  </si>
+  <si>
+    <t>Petrarch Fuel Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkana Petroleum Corp. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaumont Energy, Inc. </t>
+  </si>
+  <si>
+    <t>Dameron Fuel Services</t>
+  </si>
+  <si>
+    <t>Midland Energy Resources</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV / Revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Comps, estimate EV of each division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating Revenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petrochemicals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated Enterprise Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Stock Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Value of Equity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,10 +281,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="182" formatCode="0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -202,6 +341,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <u/>
@@ -209,6 +356,13 @@
       <color theme="1"/>
       <name val="맑은 고딕 (본문)"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -224,6 +378,24 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -244,8 +416,62 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color indexed="20"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,8 +484,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,13 +505,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +596,10 @@
     <xf numFmtId="38" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -304,11 +611,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -316,22 +625,84 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="37" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -656,26 +1027,51 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="22">
+        <v>22</v>
+      </c>
+      <c r="C2" s="26">
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="27">
+        <v>23</v>
+      </c>
+      <c r="C3" s="31">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="27">
+        <v>15</v>
+      </c>
+      <c r="C4" s="31">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>44.11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <f>C6 * C7</f>
+        <v>130168.61</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +1082,1150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="4" width="5.28515625" style="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="260" width="5.28515625" style="1"/>
+    <col min="261" max="261" width="7.28515625" style="1" customWidth="1"/>
+    <col min="262" max="262" width="5.28515625" style="1"/>
+    <col min="263" max="263" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="6.140625" style="1" customWidth="1"/>
+    <col min="265" max="265" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="516" width="5.28515625" style="1"/>
+    <col min="517" max="517" width="7.28515625" style="1" customWidth="1"/>
+    <col min="518" max="518" width="5.28515625" style="1"/>
+    <col min="519" max="519" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="6.140625" style="1" customWidth="1"/>
+    <col min="521" max="521" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="772" width="5.28515625" style="1"/>
+    <col min="773" max="773" width="7.28515625" style="1" customWidth="1"/>
+    <col min="774" max="774" width="5.28515625" style="1"/>
+    <col min="775" max="775" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="6.140625" style="1" customWidth="1"/>
+    <col min="777" max="777" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="1028" width="5.28515625" style="1"/>
+    <col min="1029" max="1029" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="5.28515625" style="1"/>
+    <col min="1031" max="1031" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="6.140625" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1284" width="5.28515625" style="1"/>
+    <col min="1285" max="1285" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="5.28515625" style="1"/>
+    <col min="1287" max="1287" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="6.140625" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1540" width="5.28515625" style="1"/>
+    <col min="1541" max="1541" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="5.28515625" style="1"/>
+    <col min="1543" max="1543" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="6.140625" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1796" width="5.28515625" style="1"/>
+    <col min="1797" max="1797" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="5.28515625" style="1"/>
+    <col min="1799" max="1799" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="6.140625" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2052" width="5.28515625" style="1"/>
+    <col min="2053" max="2053" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="5.28515625" style="1"/>
+    <col min="2055" max="2055" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="6.140625" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2308" width="5.28515625" style="1"/>
+    <col min="2309" max="2309" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="5.28515625" style="1"/>
+    <col min="2311" max="2311" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="6.140625" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2564" width="5.28515625" style="1"/>
+    <col min="2565" max="2565" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="5.28515625" style="1"/>
+    <col min="2567" max="2567" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="6.140625" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2820" width="5.28515625" style="1"/>
+    <col min="2821" max="2821" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="5.28515625" style="1"/>
+    <col min="2823" max="2823" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="6.140625" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3076" width="5.28515625" style="1"/>
+    <col min="3077" max="3077" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="5.28515625" style="1"/>
+    <col min="3079" max="3079" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="6.140625" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3332" width="5.28515625" style="1"/>
+    <col min="3333" max="3333" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="5.28515625" style="1"/>
+    <col min="3335" max="3335" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="6.140625" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3588" width="5.28515625" style="1"/>
+    <col min="3589" max="3589" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="5.28515625" style="1"/>
+    <col min="3591" max="3591" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="6.140625" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3844" width="5.28515625" style="1"/>
+    <col min="3845" max="3845" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="5.28515625" style="1"/>
+    <col min="3847" max="3847" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="6.140625" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4100" width="5.28515625" style="1"/>
+    <col min="4101" max="4101" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="5.28515625" style="1"/>
+    <col min="4103" max="4103" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="6.140625" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4356" width="5.28515625" style="1"/>
+    <col min="4357" max="4357" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="5.28515625" style="1"/>
+    <col min="4359" max="4359" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="6.140625" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4612" width="5.28515625" style="1"/>
+    <col min="4613" max="4613" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="5.28515625" style="1"/>
+    <col min="4615" max="4615" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="6.140625" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4868" width="5.28515625" style="1"/>
+    <col min="4869" max="4869" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="5.28515625" style="1"/>
+    <col min="4871" max="4871" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="6.140625" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5124" width="5.28515625" style="1"/>
+    <col min="5125" max="5125" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="5.28515625" style="1"/>
+    <col min="5127" max="5127" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="6.140625" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5380" width="5.28515625" style="1"/>
+    <col min="5381" max="5381" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="5.28515625" style="1"/>
+    <col min="5383" max="5383" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="6.140625" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5636" width="5.28515625" style="1"/>
+    <col min="5637" max="5637" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="5.28515625" style="1"/>
+    <col min="5639" max="5639" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="6.140625" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5892" width="5.28515625" style="1"/>
+    <col min="5893" max="5893" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="5.28515625" style="1"/>
+    <col min="5895" max="5895" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="6.140625" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6148" width="5.28515625" style="1"/>
+    <col min="6149" max="6149" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="5.28515625" style="1"/>
+    <col min="6151" max="6151" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="6.140625" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6404" width="5.28515625" style="1"/>
+    <col min="6405" max="6405" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="5.28515625" style="1"/>
+    <col min="6407" max="6407" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="6.140625" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6660" width="5.28515625" style="1"/>
+    <col min="6661" max="6661" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="5.28515625" style="1"/>
+    <col min="6663" max="6663" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="6.140625" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6916" width="5.28515625" style="1"/>
+    <col min="6917" max="6917" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="5.28515625" style="1"/>
+    <col min="6919" max="6919" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="6.140625" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7172" width="5.28515625" style="1"/>
+    <col min="7173" max="7173" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="5.28515625" style="1"/>
+    <col min="7175" max="7175" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="6.140625" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7428" width="5.28515625" style="1"/>
+    <col min="7429" max="7429" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="5.28515625" style="1"/>
+    <col min="7431" max="7431" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="6.140625" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7684" width="5.28515625" style="1"/>
+    <col min="7685" max="7685" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="5.28515625" style="1"/>
+    <col min="7687" max="7687" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="6.140625" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7940" width="5.28515625" style="1"/>
+    <col min="7941" max="7941" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="5.28515625" style="1"/>
+    <col min="7943" max="7943" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="6.140625" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8196" width="5.28515625" style="1"/>
+    <col min="8197" max="8197" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="5.28515625" style="1"/>
+    <col min="8199" max="8199" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="6.140625" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8452" width="5.28515625" style="1"/>
+    <col min="8453" max="8453" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="5.28515625" style="1"/>
+    <col min="8455" max="8455" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="6.140625" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8708" width="5.28515625" style="1"/>
+    <col min="8709" max="8709" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="5.28515625" style="1"/>
+    <col min="8711" max="8711" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="6.140625" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8964" width="5.28515625" style="1"/>
+    <col min="8965" max="8965" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="5.28515625" style="1"/>
+    <col min="8967" max="8967" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="6.140625" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9220" width="5.28515625" style="1"/>
+    <col min="9221" max="9221" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="5.28515625" style="1"/>
+    <col min="9223" max="9223" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="6.140625" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9476" width="5.28515625" style="1"/>
+    <col min="9477" max="9477" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="5.28515625" style="1"/>
+    <col min="9479" max="9479" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="6.140625" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9732" width="5.28515625" style="1"/>
+    <col min="9733" max="9733" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="5.28515625" style="1"/>
+    <col min="9735" max="9735" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="6.140625" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9988" width="5.28515625" style="1"/>
+    <col min="9989" max="9989" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="5.28515625" style="1"/>
+    <col min="9991" max="9991" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="6.140625" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10244" width="5.28515625" style="1"/>
+    <col min="10245" max="10245" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="5.28515625" style="1"/>
+    <col min="10247" max="10247" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="6.140625" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10500" width="5.28515625" style="1"/>
+    <col min="10501" max="10501" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="5.28515625" style="1"/>
+    <col min="10503" max="10503" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="6.140625" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10756" width="5.28515625" style="1"/>
+    <col min="10757" max="10757" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="5.28515625" style="1"/>
+    <col min="10759" max="10759" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="6.140625" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11012" width="5.28515625" style="1"/>
+    <col min="11013" max="11013" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="5.28515625" style="1"/>
+    <col min="11015" max="11015" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="6.140625" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11268" width="5.28515625" style="1"/>
+    <col min="11269" max="11269" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="5.28515625" style="1"/>
+    <col min="11271" max="11271" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="6.140625" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11524" width="5.28515625" style="1"/>
+    <col min="11525" max="11525" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="5.28515625" style="1"/>
+    <col min="11527" max="11527" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="6.140625" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11780" width="5.28515625" style="1"/>
+    <col min="11781" max="11781" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="5.28515625" style="1"/>
+    <col min="11783" max="11783" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="6.140625" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12036" width="5.28515625" style="1"/>
+    <col min="12037" max="12037" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="5.28515625" style="1"/>
+    <col min="12039" max="12039" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="6.140625" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12292" width="5.28515625" style="1"/>
+    <col min="12293" max="12293" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="5.28515625" style="1"/>
+    <col min="12295" max="12295" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="6.140625" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12548" width="5.28515625" style="1"/>
+    <col min="12549" max="12549" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="5.28515625" style="1"/>
+    <col min="12551" max="12551" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="6.140625" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12804" width="5.28515625" style="1"/>
+    <col min="12805" max="12805" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="5.28515625" style="1"/>
+    <col min="12807" max="12807" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="6.140625" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13060" width="5.28515625" style="1"/>
+    <col min="13061" max="13061" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="5.28515625" style="1"/>
+    <col min="13063" max="13063" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="6.140625" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13316" width="5.28515625" style="1"/>
+    <col min="13317" max="13317" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="5.28515625" style="1"/>
+    <col min="13319" max="13319" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="6.140625" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13572" width="5.28515625" style="1"/>
+    <col min="13573" max="13573" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="5.28515625" style="1"/>
+    <col min="13575" max="13575" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="6.140625" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13828" width="5.28515625" style="1"/>
+    <col min="13829" max="13829" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="5.28515625" style="1"/>
+    <col min="13831" max="13831" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="6.140625" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14084" width="5.28515625" style="1"/>
+    <col min="14085" max="14085" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="5.28515625" style="1"/>
+    <col min="14087" max="14087" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="6.140625" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14340" width="5.28515625" style="1"/>
+    <col min="14341" max="14341" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="5.28515625" style="1"/>
+    <col min="14343" max="14343" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="6.140625" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14596" width="5.28515625" style="1"/>
+    <col min="14597" max="14597" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="5.28515625" style="1"/>
+    <col min="14599" max="14599" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="6.140625" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14852" width="5.28515625" style="1"/>
+    <col min="14853" max="14853" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="5.28515625" style="1"/>
+    <col min="14855" max="14855" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="6.140625" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15108" width="5.28515625" style="1"/>
+    <col min="15109" max="15109" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="5.28515625" style="1"/>
+    <col min="15111" max="15111" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="6.140625" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15364" width="5.28515625" style="1"/>
+    <col min="15365" max="15365" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="5.28515625" style="1"/>
+    <col min="15367" max="15367" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="6.140625" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15620" width="5.28515625" style="1"/>
+    <col min="15621" max="15621" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="5.28515625" style="1"/>
+    <col min="15623" max="15623" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="6.140625" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15876" width="5.28515625" style="1"/>
+    <col min="15877" max="15877" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="5.28515625" style="1"/>
+    <col min="15879" max="15879" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="6.140625" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16132" width="5.28515625" style="1"/>
+    <col min="16133" max="16133" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="5.28515625" style="1"/>
+    <col min="16135" max="16135" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="6.140625" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="5.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="36" customFormat="1">
+      <c r="A1" s="36" t="str">
+        <f>$C$6</f>
+        <v>MIDLAND ENERGY RESOURCES</v>
+      </c>
+      <c r="I1" s="36" t="str">
+        <f>IF($C$8="Y","Draft","")</f>
+        <v/>
+      </c>
+      <c r="R1" s="37" t="str">
+        <f>$C$7</f>
+        <v>Comparable Companies</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1">
+      <c r="R2" s="39"/>
+    </row>
+    <row r="3" spans="1:18" s="40" customFormat="1" ht="16">
+      <c r="R3" s="41"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="43" customFormat="1">
+      <c r="R51" s="44" t="str">
+        <f>$C$9</f>
+        <v>Harvard Business Publishing</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="19">
+      <c r="A52" s="36" t="str">
+        <f>$C$6</f>
+        <v>MIDLAND ENERGY RESOURCES</v>
+      </c>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36" t="str">
+        <f>IF($C$8="Y","Draft","")</f>
+        <v/>
+      </c>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="O52" s="36"/>
+      <c r="P52" s="36"/>
+      <c r="Q52" s="36"/>
+      <c r="R52" s="37" t="str">
+        <f>$C$7</f>
+        <v>Comparable Companies</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="2" customHeight="1">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+      <c r="R53" s="39"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="41"/>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56" s="51"/>
+      <c r="H56" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="J56" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29"/>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29">
+        <v>57931.110736939998</v>
+      </c>
+      <c r="F58" s="29">
+        <v>6480.25</v>
+      </c>
+      <c r="G58" s="56">
+        <v>0.111861311091138</v>
+      </c>
+      <c r="H58" s="57">
+        <v>0.89</v>
+      </c>
+      <c r="I58" s="29">
+        <v>18511.5</v>
+      </c>
+      <c r="J58" s="29">
+        <v>4980.5</v>
+      </c>
+      <c r="K58" s="29">
+        <f>E58 + F58</f>
+        <v>64411.360736939998</v>
+      </c>
+      <c r="L58" s="58">
+        <f>K58 / I58</f>
+        <v>3.4795322225070899</v>
+      </c>
+      <c r="M58" s="46"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29">
+        <v>46088.704343605001</v>
+      </c>
+      <c r="F59" s="29">
+        <v>39375</v>
+      </c>
+      <c r="G59" s="56">
+        <v>0.85433080753252799</v>
+      </c>
+      <c r="H59" s="57">
+        <v>1.21</v>
+      </c>
+      <c r="I59" s="29">
+        <v>17827.25</v>
+      </c>
+      <c r="J59" s="29">
+        <v>8494.5</v>
+      </c>
+      <c r="K59" s="29">
+        <f t="shared" ref="K59:K61" si="0">E59 + F59</f>
+        <v>85463.704343605001</v>
+      </c>
+      <c r="L59" s="58">
+        <f>K59 / I59</f>
+        <v>4.7939925868322373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29">
+        <v>42262.564498017498</v>
+      </c>
+      <c r="F60" s="29">
+        <v>6442.4517500000002</v>
+      </c>
+      <c r="G60" s="56">
+        <v>0.15243873216217699</v>
+      </c>
+      <c r="H60" s="57">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="I60" s="29">
+        <v>14505.36325</v>
+      </c>
+      <c r="J60" s="29">
+        <v>4466.7892499999998</v>
+      </c>
+      <c r="K60" s="29">
+        <f t="shared" si="0"/>
+        <v>48705.016248017499</v>
+      </c>
+      <c r="L60" s="58">
+        <f>K60 / I60</f>
+        <v>3.35772468490353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29">
+        <v>27591.437065902501</v>
+      </c>
+      <c r="F61" s="29">
+        <v>13098.1865</v>
+      </c>
+      <c r="G61" s="59">
+        <v>0.474719256873602</v>
+      </c>
+      <c r="H61" s="60">
+        <v>1.39</v>
+      </c>
+      <c r="I61" s="29">
+        <v>12819.79125</v>
+      </c>
+      <c r="J61" s="29">
+        <v>3505.8152500000001</v>
+      </c>
+      <c r="K61" s="29">
+        <f t="shared" si="0"/>
+        <v>40689.623565902497</v>
+      </c>
+      <c r="L61" s="58">
+        <f>K61 / I61</f>
+        <v>3.1739692770662313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="62">
+        <f>AVERAGE(G58:G61)</f>
+        <v>0.39833752691486124</v>
+      </c>
+      <c r="H62" s="63">
+        <f>AVERAGE(H58:H61)</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="57">
+        <f>AVERAGE(L55:L61)</f>
+        <v>3.7013046928272724</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29">
+        <v>60355.524150652498</v>
+      </c>
+      <c r="F65" s="29">
+        <v>6200.25</v>
+      </c>
+      <c r="G65" s="56">
+        <v>0.10272879056643799</v>
+      </c>
+      <c r="H65" s="57">
+        <v>1.7</v>
+      </c>
+      <c r="I65" s="29">
+        <v>160707.75</v>
+      </c>
+      <c r="J65" s="29">
+        <v>9560.25</v>
+      </c>
+      <c r="K65" s="29">
+        <f t="shared" ref="K65:K71" si="1">E65 + F65</f>
+        <v>66555.774150652491</v>
+      </c>
+      <c r="L65" s="58">
+        <f>K65 / I65</f>
+        <v>0.41414165869818031</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29">
+        <v>15566.901490157499</v>
+      </c>
+      <c r="F66" s="29">
+        <v>3017</v>
+      </c>
+      <c r="G66" s="56">
+        <v>0.193808639561801</v>
+      </c>
+      <c r="H66" s="57">
+        <v>0.94</v>
+      </c>
+      <c r="I66" s="29">
+        <v>67751.25</v>
+      </c>
+      <c r="J66" s="29">
+        <v>1713.25</v>
+      </c>
+      <c r="K66" s="29">
+        <f t="shared" si="1"/>
+        <v>18583.901490157499</v>
+      </c>
+      <c r="L66" s="58">
+        <f>K66 / I66</f>
+        <v>0.27429606819294844</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29">
+        <v>9203.9428760999999</v>
+      </c>
+      <c r="F67" s="29">
+        <v>1925</v>
+      </c>
+      <c r="G67" s="56">
+        <v>0.20914949450617201</v>
+      </c>
+      <c r="H67" s="57">
+        <v>1.78</v>
+      </c>
+      <c r="I67" s="29">
+        <v>31682</v>
+      </c>
+      <c r="J67" s="29">
+        <v>1401.75</v>
+      </c>
+      <c r="K67" s="29">
+        <f t="shared" si="1"/>
+        <v>11128.9428761</v>
+      </c>
+      <c r="L67" s="58">
+        <f>K67 / I67</f>
+        <v>0.35127021261599645</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29">
+        <v>2459.6139750000002</v>
+      </c>
+      <c r="F68" s="29">
+        <v>-295.61525</v>
+      </c>
+      <c r="G68" s="56">
+        <v>-0.120187660748675</v>
+      </c>
+      <c r="H68" s="57">
+        <v>0.24</v>
+      </c>
+      <c r="I68" s="29">
+        <v>18873.988000000001</v>
+      </c>
+      <c r="J68" s="29">
+        <v>111.90900000000001</v>
+      </c>
+      <c r="K68" s="29">
+        <f t="shared" si="1"/>
+        <v>2163.9987250000004</v>
+      </c>
+      <c r="L68" s="58">
+        <f>K68 / I68</f>
+        <v>0.11465508640781165</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29">
+        <v>18363.183908667499</v>
+      </c>
+      <c r="F69" s="29">
+        <v>5930.75</v>
+      </c>
+      <c r="G69" s="56">
+        <v>0.32296959119385898</v>
+      </c>
+      <c r="H69" s="57">
+        <v>1.25</v>
+      </c>
+      <c r="I69" s="29">
+        <v>49117.25</v>
+      </c>
+      <c r="J69" s="29">
+        <v>3353</v>
+      </c>
+      <c r="K69" s="29">
+        <f t="shared" si="1"/>
+        <v>24293.933908667499</v>
+      </c>
+      <c r="L69" s="58">
+        <f>K69 / I69</f>
+        <v>0.49461103601418033</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29">
+        <v>32662.476497</v>
+      </c>
+      <c r="F70" s="29">
+        <v>6743.45</v>
+      </c>
+      <c r="G70" s="56">
+        <v>0.20645862540825299</v>
+      </c>
+      <c r="H70" s="57">
+        <v>1.04</v>
+      </c>
+      <c r="I70" s="29">
+        <v>59988.818749999999</v>
+      </c>
+      <c r="J70" s="29">
+        <v>1466.9882500000001</v>
+      </c>
+      <c r="K70" s="29">
+        <f t="shared" si="1"/>
+        <v>39405.926497</v>
+      </c>
+      <c r="L70" s="58">
+        <f>K70 / I70</f>
+        <v>0.65688785540555428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29">
+        <v>48796.331130295002</v>
+      </c>
+      <c r="F71" s="29">
+        <v>24524.5</v>
+      </c>
+      <c r="G71" s="59">
+        <v>0.502589015033019</v>
+      </c>
+      <c r="H71" s="60">
+        <v>1.42</v>
+      </c>
+      <c r="I71" s="29">
+        <v>58750.424249999996</v>
+      </c>
+      <c r="J71" s="29">
+        <v>4646.1432500000001</v>
+      </c>
+      <c r="K71" s="29">
+        <f t="shared" si="1"/>
+        <v>73320.831130295002</v>
+      </c>
+      <c r="L71" s="58">
+        <f>K71 / I71</f>
+        <v>1.2480051347083678</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="62">
+        <f>AVERAGE(G65:G71)</f>
+        <v>0.20250235650298101</v>
+      </c>
+      <c r="H72" s="63">
+        <f>AVERAGE(H65:H71)</f>
+        <v>1.195714285714286</v>
+      </c>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="57">
+        <f>AVERAGE(L65:L71)</f>
+        <v>0.50769529314900563</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21">
+        <v>134113.958792964</v>
+      </c>
+      <c r="F74" s="21">
+        <v>79508.350819343599</v>
+      </c>
+      <c r="G74" s="64">
+        <v>0.59284172605838303</v>
+      </c>
+      <c r="H74" s="65">
+        <v>1.2514691588785001</v>
+      </c>
+      <c r="I74" s="21">
+        <v>251002.73560000001</v>
+      </c>
+      <c r="J74" s="21">
+        <v>18887.644667874501</v>
+      </c>
+      <c r="K74" s="29"/>
+      <c r="L74" s="56"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="E75" s="3"/>
+      <c r="G75" s="47"/>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="E76" s="3"/>
+      <c r="G76" s="47"/>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="F77" s="48"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="E79" s="49"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="H80" s="9"/>
+    </row>
+    <row r="81" spans="7:13">
+      <c r="H81" s="9"/>
+      <c r="I81" s="25"/>
+    </row>
+    <row r="86" spans="7:13">
+      <c r="G86" s="45"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="M86" s="25"/>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="43"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
+      <c r="M102" s="43"/>
+      <c r="N102" s="43"/>
+      <c r="O102" s="43"/>
+      <c r="P102" s="43"/>
+      <c r="Q102" s="43"/>
+      <c r="R102" s="44" t="str">
+        <f>$C$9</f>
+        <v>Harvard Business Publishing</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -756,16 +2292,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="15"/>
+      <c r="A7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -774,7 +2310,7 @@
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="15">
         <f>B5 + B6 - B7</f>
         <v>82639.0708193436</v>
       </c>
@@ -785,10 +2321,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="16">
-        <v>97279.570743917182</v>
+        <v>67</v>
+      </c>
+      <c r="B9" s="18">
+        <f>mve</f>
+        <v>130168.61</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -797,11 +2334,11 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="17">
+        <v>5</v>
+      </c>
+      <c r="B10" s="19">
         <f>B8 / B9</f>
-        <v>0.84950077582975925</v>
+        <v>0.63486174446622423</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -817,8 +2354,8 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19" t="s">
-        <v>7</v>
+      <c r="A12" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -828,7 +2365,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="9">
         <f>rf</f>
@@ -840,10 +2377,10 @@
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="21">
+      <c r="A14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="25">
         <v>1.25</v>
       </c>
       <c r="C14" s="1"/>
@@ -853,7 +2390,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="9">
         <f>mrp</f>
@@ -866,30 +2403,30 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="23">
+        <v>6</v>
+      </c>
+      <c r="B16" s="27">
         <f>B13 + B14 * B15</f>
         <v>0.1123</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="24" t="s">
-        <v>11</v>
+      <c r="A18" s="28" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="22">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26">
         <f>rf</f>
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
-        <v>12</v>
+      <c r="A20" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="B20">
         <v>0.05</v>
@@ -897,7 +2434,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="9">
         <f>mrp</f>
@@ -910,7 +2447,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="10">
         <f>B19 + B20 * B21</f>
@@ -930,8 +2467,8 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="24" t="s">
-        <v>13</v>
+      <c r="A24" s="28" t="s">
+        <v>12</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -954,11 +2491,11 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1">
-        <f>B9</f>
-        <v>97279.570743917182</v>
+        <f>mve</f>
+        <v>130168.61</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -966,12 +2503,12 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="28">
+      <c r="A27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="32">
         <f>B25 / (B25 + B26)</f>
-        <v>0.459313554734055</v>
+        <v>0.38832748188961019</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -979,89 +2516,89 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="29">
+      <c r="A28" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="33">
         <f>B26 / (B25 + B26)</f>
-        <v>0.540686445265945</v>
+        <v>0.61167251811038981</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="27">
+      <c r="A29" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="31">
         <f>tax</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="27">
+        <f>B27 * B22 * (1 - B29) + B28 * B16</f>
+        <v>8.0876540165492741E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="23">
-        <f>B27 * B22 * (1 - B29) + B28 * B16</f>
-        <v>7.5132347150920265E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33" s="22">
+      <c r="B33" s="26">
         <v>0.42199999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="22">
+      <c r="A34" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="26">
         <f>1 - B33</f>
         <v>0.57800000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="22">
+      <c r="A35" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="26">
         <f xml:space="preserve"> rf + 1.62%</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="22">
+      <c r="A36" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="26">
         <f>B16</f>
         <v>0.1123</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="27">
+      <c r="A37" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="31">
         <f>tax</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="23">
+      <c r="A38" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="27">
         <f>B33 * B35 * (1 - B37) +B34 * B36</f>
         <v>8.1620600000000001E-2</v>
       </c>
@@ -1072,12 +2609,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1091,77 +2628,77 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>11</v>
+      <c r="A2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="22">
+        <v>21</v>
+      </c>
+      <c r="B3" s="26">
         <f>rf</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="22">
+        <v>21</v>
+      </c>
+      <c r="D3" s="26">
         <f>rf</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="22">
+        <v>21</v>
+      </c>
+      <c r="G3" s="26">
         <f>rf</f>
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="22">
+        <v>21</v>
+      </c>
+      <c r="I3" s="26">
         <f>rf</f>
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1.1499999999999999</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0.05</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>1.2</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4">
         <v>0.1</v>
@@ -1169,128 +2706,288 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="22">
+        <v>9</v>
+      </c>
+      <c r="B5" s="26">
         <f>mrp</f>
         <v>0.05</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="22">
+        <v>9</v>
+      </c>
+      <c r="D5" s="26">
         <f>mrp</f>
         <v>0.05</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="22">
+        <v>9</v>
+      </c>
+      <c r="G5" s="26">
         <f>mrp</f>
         <v>0.05</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="22">
+        <v>9</v>
+      </c>
+      <c r="I5" s="26">
         <f>mrp</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="22">
+        <v>6</v>
+      </c>
+      <c r="B6" s="26">
         <f>B3 + B4 * B5</f>
         <v>0.10729999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="22">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26">
         <f>D3 + D4 * D5</f>
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="22">
+        <v>6</v>
+      </c>
+      <c r="G6" s="26">
         <f>G3 + G4 * G5</f>
         <v>0.10979999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="22">
+        <v>10</v>
+      </c>
+      <c r="I6" s="26">
         <f>I3 + I4 * I5</f>
         <v>5.4800000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="27">
+        <v>19</v>
+      </c>
+      <c r="B8" s="31">
         <v>0.46</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="27">
+        <v>20</v>
+      </c>
+      <c r="D8" s="31">
         <f>1 - B8</f>
         <v>0.54</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="27">
+        <v>19</v>
+      </c>
+      <c r="G8" s="31">
         <v>0.31</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="27">
+        <v>20</v>
+      </c>
+      <c r="I8" s="31">
         <f>1 - G8</f>
         <v>0.69</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="27">
+        <v>15</v>
+      </c>
+      <c r="B9" s="31">
         <f>tax</f>
         <v>0.4</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="27">
+        <v>15</v>
+      </c>
+      <c r="G9" s="31">
         <f>tax</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="22">
+        <v>12</v>
+      </c>
+      <c r="B10" s="26">
         <f>D6 * B8 * (1 - B9) + D8 * B6</f>
         <v>7.2376800000000005E-2</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="22">
+        <v>12</v>
+      </c>
+      <c r="G10" s="26">
         <f>I6 * G8 * (1 - G9) + I8 * G6</f>
         <v>8.5954799999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13">
+        <f>mve</f>
+        <v>130168.61</v>
+      </c>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <f>'Q2'!B5</f>
+        <v>82639.0708193436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="14">
+        <f>SUM(B2:B3)</f>
+        <v>212807.6808193436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22357.263456749599</v>
+      </c>
+      <c r="C8" s="1">
+        <v>202971.30888246701</v>
+      </c>
+      <c r="D8" s="1">
+        <v>23188.987660783201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="66">
+        <f>Comps!L62</f>
+        <v>3.7013046928272724</v>
+      </c>
+      <c r="C9" s="66">
+        <f>Comps!L72</f>
+        <v>0.50769529314900563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="67">
+        <f>B8 * B9</f>
+        <v>82751.044151242982</v>
+      </c>
+      <c r="C10" s="67">
+        <f>C8 * C9</f>
+        <v>103047.57816392145</v>
+      </c>
+      <c r="D10" s="14">
+        <f>B4 -B10 -C10</f>
+        <v>27009.058504179164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="26">
+        <f>B10/(SUM($B$10:$D$10))</f>
+        <v>0.38885365336738897</v>
+      </c>
+      <c r="C11" s="26">
+        <f>C10/(SUM($B$10:$D$10))</f>
+        <v>0.48422866020235644</v>
+      </c>
+      <c r="D11" s="26">
+        <f>D10/(SUM($B$10:$D$10))</f>
+        <v>0.12691768643025464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26">
+        <f>'Q4'!B10</f>
+        <v>7.2376800000000005E-2</v>
+      </c>
+      <c r="C12" s="26">
+        <f>'Q4'!G10</f>
+        <v>8.5954799999999998E-2</v>
+      </c>
+      <c r="D12" s="26">
+        <f>(E12 - B11*B12 - C11*C12) / D11</f>
+        <v>8.7543192261041777E-2</v>
+      </c>
+      <c r="E12" s="26">
+        <f>'Q2'!B30</f>
+        <v>8.0876540165492741E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Case/CS3/FIN521_Case3.xlsx
+++ b/Case/CS3/FIN521_Case3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Case/CS3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Case/CS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,8 @@
     <sheet name="Comps" sheetId="4" r:id="rId2"/>
     <sheet name="Q2" sheetId="1" r:id="rId3"/>
     <sheet name="Q4" sheetId="2" r:id="rId4"/>
-    <sheet name="Q6" sheetId="5" r:id="rId5"/>
+    <sheet name="Q5" sheetId="6" r:id="rId5"/>
+    <sheet name="Q6" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="mrp">Parameters!$C$3</definedName>
@@ -24,9 +25,15 @@
     <definedName name="rf">Parameters!$C$2</definedName>
     <definedName name="tax">Parameters!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="autoNoTable" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="150001" calcMode="autoNoTable" iterate="1" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
   <si>
     <t>Cash &amp; Cash equivalents</t>
   </si>
@@ -275,31 +282,73 @@
   <si>
     <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExxonMobil</t>
+  </si>
+  <si>
+    <t>Chevron Phillips Chemical</t>
+  </si>
+  <si>
+    <t>Equity Market Value</t>
+  </si>
+  <si>
+    <t>Net Debt</t>
+  </si>
+  <si>
+    <t>Equity Beta</t>
+  </si>
+  <si>
+    <t>LTM Revenue</t>
+  </si>
+  <si>
+    <t>LTM Earnings</t>
+  </si>
+  <si>
+    <t>Share Price</t>
+  </si>
+  <si>
+    <t>Outstanding Shares</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Baker Hughes</t>
+  </si>
+  <si>
+    <t>Short Term Debt</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>EV / Revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0%"/>
-    <numFmt numFmtId="181" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="182" formatCode="0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
+    <numFmt numFmtId="168" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -343,7 +392,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -392,7 +441,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -403,7 +452,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -411,7 +460,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -510,17 +559,17 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -529,7 +578,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -537,33 +586,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,7 +625,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,7 +633,7 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -658,10 +707,10 @@
     <xf numFmtId="37" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -683,26 +732,35 @@
     <xf numFmtId="37" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
-    <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1020,12 +1078,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1033,7 +1091,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -1041,7 +1099,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1107,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -1057,7 +1115,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1065,7 +1123,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -1088,399 +1146,399 @@
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="5.28515625" style="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.33203125" style="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="260" width="5.28515625" style="1"/>
-    <col min="261" max="261" width="7.28515625" style="1" customWidth="1"/>
-    <col min="262" max="262" width="5.28515625" style="1"/>
-    <col min="263" max="263" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="6.140625" style="1" customWidth="1"/>
-    <col min="265" max="265" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="516" width="5.28515625" style="1"/>
-    <col min="517" max="517" width="7.28515625" style="1" customWidth="1"/>
-    <col min="518" max="518" width="5.28515625" style="1"/>
-    <col min="519" max="519" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="6.140625" style="1" customWidth="1"/>
-    <col min="521" max="521" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="772" width="5.28515625" style="1"/>
-    <col min="773" max="773" width="7.28515625" style="1" customWidth="1"/>
-    <col min="774" max="774" width="5.28515625" style="1"/>
-    <col min="775" max="775" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="6.140625" style="1" customWidth="1"/>
-    <col min="777" max="777" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="1028" width="5.28515625" style="1"/>
-    <col min="1029" max="1029" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="5.28515625" style="1"/>
-    <col min="1031" max="1031" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="6.140625" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1284" width="5.28515625" style="1"/>
-    <col min="1285" max="1285" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="5.28515625" style="1"/>
-    <col min="1287" max="1287" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="6.140625" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1540" width="5.28515625" style="1"/>
-    <col min="1541" max="1541" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="5.28515625" style="1"/>
-    <col min="1543" max="1543" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="6.140625" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1796" width="5.28515625" style="1"/>
-    <col min="1797" max="1797" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="5.28515625" style="1"/>
-    <col min="1799" max="1799" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="6.140625" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2052" width="5.28515625" style="1"/>
-    <col min="2053" max="2053" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="5.28515625" style="1"/>
-    <col min="2055" max="2055" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="6.140625" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2308" width="5.28515625" style="1"/>
-    <col min="2309" max="2309" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="5.28515625" style="1"/>
-    <col min="2311" max="2311" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="6.140625" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2564" width="5.28515625" style="1"/>
-    <col min="2565" max="2565" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="5.28515625" style="1"/>
-    <col min="2567" max="2567" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="6.140625" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2820" width="5.28515625" style="1"/>
-    <col min="2821" max="2821" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="5.28515625" style="1"/>
-    <col min="2823" max="2823" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="6.140625" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3076" width="5.28515625" style="1"/>
-    <col min="3077" max="3077" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="5.28515625" style="1"/>
-    <col min="3079" max="3079" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="6.140625" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3332" width="5.28515625" style="1"/>
-    <col min="3333" max="3333" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="5.28515625" style="1"/>
-    <col min="3335" max="3335" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="6.140625" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3588" width="5.28515625" style="1"/>
-    <col min="3589" max="3589" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="5.28515625" style="1"/>
-    <col min="3591" max="3591" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="6.140625" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3844" width="5.28515625" style="1"/>
-    <col min="3845" max="3845" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="5.28515625" style="1"/>
-    <col min="3847" max="3847" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="6.140625" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4100" width="5.28515625" style="1"/>
-    <col min="4101" max="4101" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="5.28515625" style="1"/>
-    <col min="4103" max="4103" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="6.140625" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4356" width="5.28515625" style="1"/>
-    <col min="4357" max="4357" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="5.28515625" style="1"/>
-    <col min="4359" max="4359" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="6.140625" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4612" width="5.28515625" style="1"/>
-    <col min="4613" max="4613" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="5.28515625" style="1"/>
-    <col min="4615" max="4615" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="6.140625" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4868" width="5.28515625" style="1"/>
-    <col min="4869" max="4869" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="5.28515625" style="1"/>
-    <col min="4871" max="4871" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="6.140625" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5124" width="5.28515625" style="1"/>
-    <col min="5125" max="5125" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="5.28515625" style="1"/>
-    <col min="5127" max="5127" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="6.140625" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5380" width="5.28515625" style="1"/>
-    <col min="5381" max="5381" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="5.28515625" style="1"/>
-    <col min="5383" max="5383" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="6.140625" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5636" width="5.28515625" style="1"/>
-    <col min="5637" max="5637" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="5.28515625" style="1"/>
-    <col min="5639" max="5639" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="6.140625" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5892" width="5.28515625" style="1"/>
-    <col min="5893" max="5893" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="5.28515625" style="1"/>
-    <col min="5895" max="5895" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="6.140625" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6148" width="5.28515625" style="1"/>
-    <col min="6149" max="6149" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="5.28515625" style="1"/>
-    <col min="6151" max="6151" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="6.140625" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6404" width="5.28515625" style="1"/>
-    <col min="6405" max="6405" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="5.28515625" style="1"/>
-    <col min="6407" max="6407" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="6.140625" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6660" width="5.28515625" style="1"/>
-    <col min="6661" max="6661" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="5.28515625" style="1"/>
-    <col min="6663" max="6663" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="6.140625" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6916" width="5.28515625" style="1"/>
-    <col min="6917" max="6917" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="5.28515625" style="1"/>
-    <col min="6919" max="6919" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="6.140625" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7172" width="5.28515625" style="1"/>
-    <col min="7173" max="7173" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="5.28515625" style="1"/>
-    <col min="7175" max="7175" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="6.140625" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7428" width="5.28515625" style="1"/>
-    <col min="7429" max="7429" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="5.28515625" style="1"/>
-    <col min="7431" max="7431" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="6.140625" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7684" width="5.28515625" style="1"/>
-    <col min="7685" max="7685" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="5.28515625" style="1"/>
-    <col min="7687" max="7687" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="6.140625" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7940" width="5.28515625" style="1"/>
-    <col min="7941" max="7941" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="5.28515625" style="1"/>
-    <col min="7943" max="7943" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="6.140625" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8196" width="5.28515625" style="1"/>
-    <col min="8197" max="8197" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="5.28515625" style="1"/>
-    <col min="8199" max="8199" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="6.140625" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8452" width="5.28515625" style="1"/>
-    <col min="8453" max="8453" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="5.28515625" style="1"/>
-    <col min="8455" max="8455" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="6.140625" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8708" width="5.28515625" style="1"/>
-    <col min="8709" max="8709" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="5.28515625" style="1"/>
-    <col min="8711" max="8711" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="6.140625" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8964" width="5.28515625" style="1"/>
-    <col min="8965" max="8965" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="5.28515625" style="1"/>
-    <col min="8967" max="8967" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="6.140625" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9220" width="5.28515625" style="1"/>
-    <col min="9221" max="9221" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="5.28515625" style="1"/>
-    <col min="9223" max="9223" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="6.140625" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9476" width="5.28515625" style="1"/>
-    <col min="9477" max="9477" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="5.28515625" style="1"/>
-    <col min="9479" max="9479" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="6.140625" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9732" width="5.28515625" style="1"/>
-    <col min="9733" max="9733" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="5.28515625" style="1"/>
-    <col min="9735" max="9735" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="6.140625" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9988" width="5.28515625" style="1"/>
-    <col min="9989" max="9989" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="5.28515625" style="1"/>
-    <col min="9991" max="9991" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="6.140625" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10244" width="5.28515625" style="1"/>
-    <col min="10245" max="10245" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="5.28515625" style="1"/>
-    <col min="10247" max="10247" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="6.140625" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10500" width="5.28515625" style="1"/>
-    <col min="10501" max="10501" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="5.28515625" style="1"/>
-    <col min="10503" max="10503" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="6.140625" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10756" width="5.28515625" style="1"/>
-    <col min="10757" max="10757" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="5.28515625" style="1"/>
-    <col min="10759" max="10759" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="6.140625" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11012" width="5.28515625" style="1"/>
-    <col min="11013" max="11013" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="5.28515625" style="1"/>
-    <col min="11015" max="11015" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="6.140625" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11268" width="5.28515625" style="1"/>
-    <col min="11269" max="11269" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="5.28515625" style="1"/>
-    <col min="11271" max="11271" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="6.140625" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11524" width="5.28515625" style="1"/>
-    <col min="11525" max="11525" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="5.28515625" style="1"/>
-    <col min="11527" max="11527" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="6.140625" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11780" width="5.28515625" style="1"/>
-    <col min="11781" max="11781" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="5.28515625" style="1"/>
-    <col min="11783" max="11783" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="6.140625" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12036" width="5.28515625" style="1"/>
-    <col min="12037" max="12037" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="5.28515625" style="1"/>
-    <col min="12039" max="12039" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="6.140625" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12292" width="5.28515625" style="1"/>
-    <col min="12293" max="12293" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="5.28515625" style="1"/>
-    <col min="12295" max="12295" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="6.140625" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12548" width="5.28515625" style="1"/>
-    <col min="12549" max="12549" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="5.28515625" style="1"/>
-    <col min="12551" max="12551" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="6.140625" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12804" width="5.28515625" style="1"/>
-    <col min="12805" max="12805" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="5.28515625" style="1"/>
-    <col min="12807" max="12807" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="6.140625" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13060" width="5.28515625" style="1"/>
-    <col min="13061" max="13061" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="5.28515625" style="1"/>
-    <col min="13063" max="13063" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="6.140625" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13316" width="5.28515625" style="1"/>
-    <col min="13317" max="13317" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="5.28515625" style="1"/>
-    <col min="13319" max="13319" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="6.140625" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13572" width="5.28515625" style="1"/>
-    <col min="13573" max="13573" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="5.28515625" style="1"/>
-    <col min="13575" max="13575" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="6.140625" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13828" width="5.28515625" style="1"/>
-    <col min="13829" max="13829" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="5.28515625" style="1"/>
-    <col min="13831" max="13831" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="6.140625" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14084" width="5.28515625" style="1"/>
-    <col min="14085" max="14085" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="5.28515625" style="1"/>
-    <col min="14087" max="14087" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="6.140625" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14340" width="5.28515625" style="1"/>
-    <col min="14341" max="14341" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="5.28515625" style="1"/>
-    <col min="14343" max="14343" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="6.140625" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14596" width="5.28515625" style="1"/>
-    <col min="14597" max="14597" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="5.28515625" style="1"/>
-    <col min="14599" max="14599" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="6.140625" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14852" width="5.28515625" style="1"/>
-    <col min="14853" max="14853" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="5.28515625" style="1"/>
-    <col min="14855" max="14855" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="6.140625" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15108" width="5.28515625" style="1"/>
-    <col min="15109" max="15109" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="5.28515625" style="1"/>
-    <col min="15111" max="15111" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="6.140625" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15364" width="5.28515625" style="1"/>
-    <col min="15365" max="15365" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="5.28515625" style="1"/>
-    <col min="15367" max="15367" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="6.140625" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15620" width="5.28515625" style="1"/>
-    <col min="15621" max="15621" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="5.28515625" style="1"/>
-    <col min="15623" max="15623" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="6.140625" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15876" width="5.28515625" style="1"/>
-    <col min="15877" max="15877" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="5.28515625" style="1"/>
-    <col min="15879" max="15879" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="6.140625" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16132" width="5.28515625" style="1"/>
-    <col min="16133" max="16133" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="5.28515625" style="1"/>
-    <col min="16135" max="16135" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="6.140625" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="5.28515625" style="1"/>
+    <col min="11" max="11" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="260" width="5.33203125" style="1"/>
+    <col min="261" max="261" width="7.33203125" style="1" customWidth="1"/>
+    <col min="262" max="262" width="5.33203125" style="1"/>
+    <col min="263" max="263" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="6.1640625" style="1" customWidth="1"/>
+    <col min="265" max="265" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="516" width="5.33203125" style="1"/>
+    <col min="517" max="517" width="7.33203125" style="1" customWidth="1"/>
+    <col min="518" max="518" width="5.33203125" style="1"/>
+    <col min="519" max="519" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="6.1640625" style="1" customWidth="1"/>
+    <col min="521" max="521" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="772" width="5.33203125" style="1"/>
+    <col min="773" max="773" width="7.33203125" style="1" customWidth="1"/>
+    <col min="774" max="774" width="5.33203125" style="1"/>
+    <col min="775" max="775" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="6.1640625" style="1" customWidth="1"/>
+    <col min="777" max="777" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="1028" width="5.33203125" style="1"/>
+    <col min="1029" max="1029" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="5.33203125" style="1"/>
+    <col min="1031" max="1031" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1284" width="5.33203125" style="1"/>
+    <col min="1285" max="1285" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="5.33203125" style="1"/>
+    <col min="1287" max="1287" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1540" width="5.33203125" style="1"/>
+    <col min="1541" max="1541" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="5.33203125" style="1"/>
+    <col min="1543" max="1543" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1796" width="5.33203125" style="1"/>
+    <col min="1797" max="1797" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="5.33203125" style="1"/>
+    <col min="1799" max="1799" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2052" width="5.33203125" style="1"/>
+    <col min="2053" max="2053" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="5.33203125" style="1"/>
+    <col min="2055" max="2055" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2308" width="5.33203125" style="1"/>
+    <col min="2309" max="2309" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="5.33203125" style="1"/>
+    <col min="2311" max="2311" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2564" width="5.33203125" style="1"/>
+    <col min="2565" max="2565" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="5.33203125" style="1"/>
+    <col min="2567" max="2567" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2820" width="5.33203125" style="1"/>
+    <col min="2821" max="2821" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="5.33203125" style="1"/>
+    <col min="2823" max="2823" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3076" width="5.33203125" style="1"/>
+    <col min="3077" max="3077" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="5.33203125" style="1"/>
+    <col min="3079" max="3079" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3332" width="5.33203125" style="1"/>
+    <col min="3333" max="3333" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="5.33203125" style="1"/>
+    <col min="3335" max="3335" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3588" width="5.33203125" style="1"/>
+    <col min="3589" max="3589" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="5.33203125" style="1"/>
+    <col min="3591" max="3591" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3844" width="5.33203125" style="1"/>
+    <col min="3845" max="3845" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="5.33203125" style="1"/>
+    <col min="3847" max="3847" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4100" width="5.33203125" style="1"/>
+    <col min="4101" max="4101" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="5.33203125" style="1"/>
+    <col min="4103" max="4103" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4356" width="5.33203125" style="1"/>
+    <col min="4357" max="4357" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="5.33203125" style="1"/>
+    <col min="4359" max="4359" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4612" width="5.33203125" style="1"/>
+    <col min="4613" max="4613" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="5.33203125" style="1"/>
+    <col min="4615" max="4615" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4868" width="5.33203125" style="1"/>
+    <col min="4869" max="4869" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="5.33203125" style="1"/>
+    <col min="4871" max="4871" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5124" width="5.33203125" style="1"/>
+    <col min="5125" max="5125" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="5.33203125" style="1"/>
+    <col min="5127" max="5127" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5380" width="5.33203125" style="1"/>
+    <col min="5381" max="5381" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="5.33203125" style="1"/>
+    <col min="5383" max="5383" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5636" width="5.33203125" style="1"/>
+    <col min="5637" max="5637" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="5.33203125" style="1"/>
+    <col min="5639" max="5639" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5892" width="5.33203125" style="1"/>
+    <col min="5893" max="5893" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="5.33203125" style="1"/>
+    <col min="5895" max="5895" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6148" width="5.33203125" style="1"/>
+    <col min="6149" max="6149" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="5.33203125" style="1"/>
+    <col min="6151" max="6151" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6404" width="5.33203125" style="1"/>
+    <col min="6405" max="6405" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="5.33203125" style="1"/>
+    <col min="6407" max="6407" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6660" width="5.33203125" style="1"/>
+    <col min="6661" max="6661" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="5.33203125" style="1"/>
+    <col min="6663" max="6663" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6916" width="5.33203125" style="1"/>
+    <col min="6917" max="6917" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="5.33203125" style="1"/>
+    <col min="6919" max="6919" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7172" width="5.33203125" style="1"/>
+    <col min="7173" max="7173" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="5.33203125" style="1"/>
+    <col min="7175" max="7175" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7428" width="5.33203125" style="1"/>
+    <col min="7429" max="7429" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="5.33203125" style="1"/>
+    <col min="7431" max="7431" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7684" width="5.33203125" style="1"/>
+    <col min="7685" max="7685" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="5.33203125" style="1"/>
+    <col min="7687" max="7687" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7940" width="5.33203125" style="1"/>
+    <col min="7941" max="7941" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="5.33203125" style="1"/>
+    <col min="7943" max="7943" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8196" width="5.33203125" style="1"/>
+    <col min="8197" max="8197" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="5.33203125" style="1"/>
+    <col min="8199" max="8199" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8452" width="5.33203125" style="1"/>
+    <col min="8453" max="8453" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="5.33203125" style="1"/>
+    <col min="8455" max="8455" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8708" width="5.33203125" style="1"/>
+    <col min="8709" max="8709" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="5.33203125" style="1"/>
+    <col min="8711" max="8711" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8964" width="5.33203125" style="1"/>
+    <col min="8965" max="8965" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="5.33203125" style="1"/>
+    <col min="8967" max="8967" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9220" width="5.33203125" style="1"/>
+    <col min="9221" max="9221" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="5.33203125" style="1"/>
+    <col min="9223" max="9223" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9476" width="5.33203125" style="1"/>
+    <col min="9477" max="9477" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="5.33203125" style="1"/>
+    <col min="9479" max="9479" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9732" width="5.33203125" style="1"/>
+    <col min="9733" max="9733" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="5.33203125" style="1"/>
+    <col min="9735" max="9735" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9988" width="5.33203125" style="1"/>
+    <col min="9989" max="9989" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="5.33203125" style="1"/>
+    <col min="9991" max="9991" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10244" width="5.33203125" style="1"/>
+    <col min="10245" max="10245" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="5.33203125" style="1"/>
+    <col min="10247" max="10247" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10500" width="5.33203125" style="1"/>
+    <col min="10501" max="10501" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="5.33203125" style="1"/>
+    <col min="10503" max="10503" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10756" width="5.33203125" style="1"/>
+    <col min="10757" max="10757" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="5.33203125" style="1"/>
+    <col min="10759" max="10759" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11012" width="5.33203125" style="1"/>
+    <col min="11013" max="11013" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="5.33203125" style="1"/>
+    <col min="11015" max="11015" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11268" width="5.33203125" style="1"/>
+    <col min="11269" max="11269" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="5.33203125" style="1"/>
+    <col min="11271" max="11271" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11524" width="5.33203125" style="1"/>
+    <col min="11525" max="11525" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="5.33203125" style="1"/>
+    <col min="11527" max="11527" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11780" width="5.33203125" style="1"/>
+    <col min="11781" max="11781" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="5.33203125" style="1"/>
+    <col min="11783" max="11783" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12036" width="5.33203125" style="1"/>
+    <col min="12037" max="12037" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="5.33203125" style="1"/>
+    <col min="12039" max="12039" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12292" width="5.33203125" style="1"/>
+    <col min="12293" max="12293" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="5.33203125" style="1"/>
+    <col min="12295" max="12295" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12548" width="5.33203125" style="1"/>
+    <col min="12549" max="12549" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="5.33203125" style="1"/>
+    <col min="12551" max="12551" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12804" width="5.33203125" style="1"/>
+    <col min="12805" max="12805" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="5.33203125" style="1"/>
+    <col min="12807" max="12807" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13060" width="5.33203125" style="1"/>
+    <col min="13061" max="13061" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="5.33203125" style="1"/>
+    <col min="13063" max="13063" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13316" width="5.33203125" style="1"/>
+    <col min="13317" max="13317" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="5.33203125" style="1"/>
+    <col min="13319" max="13319" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13572" width="5.33203125" style="1"/>
+    <col min="13573" max="13573" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="5.33203125" style="1"/>
+    <col min="13575" max="13575" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13828" width="5.33203125" style="1"/>
+    <col min="13829" max="13829" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="5.33203125" style="1"/>
+    <col min="13831" max="13831" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14084" width="5.33203125" style="1"/>
+    <col min="14085" max="14085" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="5.33203125" style="1"/>
+    <col min="14087" max="14087" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14340" width="5.33203125" style="1"/>
+    <col min="14341" max="14341" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="5.33203125" style="1"/>
+    <col min="14343" max="14343" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14596" width="5.33203125" style="1"/>
+    <col min="14597" max="14597" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="5.33203125" style="1"/>
+    <col min="14599" max="14599" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14852" width="5.33203125" style="1"/>
+    <col min="14853" max="14853" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="5.33203125" style="1"/>
+    <col min="14855" max="14855" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15108" width="5.33203125" style="1"/>
+    <col min="15109" max="15109" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="5.33203125" style="1"/>
+    <col min="15111" max="15111" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15364" width="5.33203125" style="1"/>
+    <col min="15365" max="15365" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="5.33203125" style="1"/>
+    <col min="15367" max="15367" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15620" width="5.33203125" style="1"/>
+    <col min="15621" max="15621" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="5.33203125" style="1"/>
+    <col min="15623" max="15623" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15876" width="5.33203125" style="1"/>
+    <col min="15877" max="15877" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="5.33203125" style="1"/>
+    <col min="15879" max="15879" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16132" width="5.33203125" style="1"/>
+    <col min="16133" max="16133" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="5.33203125" style="1"/>
+    <col min="16135" max="16135" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="6.1640625" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="5.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1">
+    <row r="1" spans="1:18" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="str">
         <f>$C$6</f>
         <v>MIDLAND ENERGY RESOURCES</v>
@@ -1494,13 +1552,13 @@
         <v>Comparable Companies</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1">
+    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R2" s="39"/>
     </row>
-    <row r="3" spans="1:18" s="40" customFormat="1" ht="16">
+    <row r="3" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R3" s="41"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1508,7 +1566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1516,7 +1574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1532,13 +1590,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="43" customFormat="1">
+    <row r="51" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R51" s="44" t="str">
         <f>$C$9</f>
         <v>Harvard Business Publishing</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="str">
         <f>$C$6</f>
         <v>MIDLAND ENERGY RESOURCES</v>
@@ -1567,7 +1625,7 @@
         <v>Comparable Companies</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="2" customHeight="1">
+    <row r="53" spans="1:18" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -1587,7 +1645,7 @@
       <c r="Q53" s="38"/>
       <c r="R53" s="39"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -1607,7 +1665,7 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="41"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -1631,7 +1689,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>37</v>
       </c>
@@ -1663,7 +1721,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>44</v>
       </c>
@@ -1698,7 +1756,7 @@
       </c>
       <c r="M58" s="46"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>45</v>
       </c>
@@ -1732,7 +1790,7 @@
         <v>4.7939925868322373</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>46</v>
       </c>
@@ -1766,7 +1824,7 @@
         <v>3.35772468490353</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>47</v>
       </c>
@@ -1800,7 +1858,7 @@
         <v>3.1739692770662313</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="61" t="s">
         <v>48</v>
       </c>
@@ -1825,7 +1883,7 @@
         <v>3.7013046928272724</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -1839,7 +1897,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>49</v>
       </c>
@@ -1855,7 +1913,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>50</v>
       </c>
@@ -1885,11 +1943,11 @@
         <v>66555.774150652491</v>
       </c>
       <c r="L65" s="58">
-        <f>K65 / I65</f>
+        <f t="shared" ref="L65:L71" si="2">K65 / I65</f>
         <v>0.41414165869818031</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
         <v>51</v>
       </c>
@@ -1919,11 +1977,11 @@
         <v>18583.901490157499</v>
       </c>
       <c r="L66" s="58">
-        <f>K66 / I66</f>
+        <f t="shared" si="2"/>
         <v>0.27429606819294844</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>52</v>
       </c>
@@ -1953,11 +2011,11 @@
         <v>11128.9428761</v>
       </c>
       <c r="L67" s="58">
-        <f>K67 / I67</f>
+        <f t="shared" si="2"/>
         <v>0.35127021261599645</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>53</v>
       </c>
@@ -1987,11 +2045,11 @@
         <v>2163.9987250000004</v>
       </c>
       <c r="L68" s="58">
-        <f>K68 / I68</f>
+        <f t="shared" si="2"/>
         <v>0.11465508640781165</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>54</v>
       </c>
@@ -2021,11 +2079,11 @@
         <v>24293.933908667499</v>
       </c>
       <c r="L69" s="58">
-        <f>K69 / I69</f>
+        <f t="shared" si="2"/>
         <v>0.49461103601418033</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>55</v>
       </c>
@@ -2055,11 +2113,11 @@
         <v>39405.926497</v>
       </c>
       <c r="L70" s="58">
-        <f>K70 / I70</f>
+        <f t="shared" si="2"/>
         <v>0.65688785540555428</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>56</v>
       </c>
@@ -2089,11 +2147,11 @@
         <v>73320.831130295002</v>
       </c>
       <c r="L71" s="58">
-        <f>K71 / I71</f>
+        <f t="shared" si="2"/>
         <v>1.2480051347083678</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="61" t="s">
         <v>48</v>
       </c>
@@ -2118,7 +2176,7 @@
         <v>0.50769529314900563</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -2132,7 +2190,7 @@
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>57</v>
       </c>
@@ -2160,38 +2218,38 @@
       <c r="K74" s="29"/>
       <c r="L74" s="56"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E75" s="3"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E76" s="3"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F77" s="48"/>
       <c r="H77" s="25"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H78" s="25"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E79" s="49"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="7:13">
+    <row r="81" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H81" s="9"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="86" spans="7:13">
+    <row r="86" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G86" s="45"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="M86" s="25"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -2228,13 +2286,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2245,7 +2303,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2256,7 +2314,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2325,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2336,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2290,14 +2348,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
@@ -2306,7 +2364,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2319,7 +2377,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
@@ -2332,7 +2390,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2403,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2353,7 +2411,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +2421,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2434,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -2388,7 +2446,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2459,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2410,12 +2468,12 @@
         <v>0.1123</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2424,7 +2482,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>11</v>
       </c>
@@ -2432,7 +2490,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2445,7 +2503,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2458,7 +2516,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2466,7 +2524,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>12</v>
       </c>
@@ -2476,7 +2534,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2547,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,7 +2560,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>13</v>
       </c>
@@ -2515,7 +2573,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>14</v>
       </c>
@@ -2524,7 +2582,7 @@
         <v>0.61167251811038981</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>15</v>
       </c>
@@ -2533,7 +2591,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>12</v>
       </c>
@@ -2542,12 +2600,12 @@
         <v>8.0876540165492741E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>13</v>
       </c>
@@ -2555,7 +2613,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>14</v>
       </c>
@@ -2564,7 +2622,7 @@
         <v>0.57800000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>10</v>
       </c>
@@ -2576,7 +2634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>6</v>
       </c>
@@ -2585,7 +2643,7 @@
         <v>0.1123</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>15</v>
       </c>
@@ -2594,7 +2652,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>12</v>
       </c>
@@ -2617,16 +2675,16 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2634,7 +2692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -2648,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2678,7 +2736,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2704,7 +2762,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2734,7 +2792,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2764,7 +2822,7 @@
         <v>5.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2792,7 +2850,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2808,7 +2866,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2824,7 +2882,7 @@
         <v>8.5954799999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2837,24 +2895,236 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>75.38</v>
+      </c>
+      <c r="C2" s="68">
+        <f>2157780998 / 1000000</f>
+        <v>2157.7809980000002</v>
+      </c>
+      <c r="D2">
+        <f>B2 * C2</f>
+        <v>162653.53162923999</v>
+      </c>
+      <c r="E2">
+        <v>10493</v>
+      </c>
+      <c r="F2">
+        <v>2159</v>
+      </c>
+      <c r="G2">
+        <v>28409</v>
+      </c>
+      <c r="H2">
+        <f>F2 + G2 - E2</f>
+        <v>20075</v>
+      </c>
+      <c r="I2" s="26">
+        <f>H2 / D2</f>
+        <v>0.12342185133588053</v>
+      </c>
+      <c r="K2">
+        <v>204892</v>
+      </c>
+      <c r="L2">
+        <v>17138</v>
+      </c>
+      <c r="M2" s="70">
+        <f>D2 + H2</f>
+        <v>182728.53162923999</v>
+      </c>
+      <c r="N2" s="69">
+        <f>M2 / K2</f>
+        <v>0.89182853224742786</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3">
+        <v>77.3</v>
+      </c>
+      <c r="C3" s="68">
+        <v>8019</v>
+      </c>
+      <c r="D3">
+        <f>B3 * C3</f>
+        <v>619868.69999999995</v>
+      </c>
+      <c r="E3">
+        <v>28244</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>13941</v>
+      </c>
+      <c r="H3">
+        <f>F3 + G3 - E3</f>
+        <v>-14303</v>
+      </c>
+      <c r="I3" s="26">
+        <f>H3 / D3</f>
+        <v>-2.3074241367567038E-2</v>
+      </c>
+      <c r="K3">
+        <v>365467</v>
+      </c>
+      <c r="L3">
+        <v>39500</v>
+      </c>
+      <c r="M3" s="70">
+        <f>D3 + H3</f>
+        <v>605565.69999999995</v>
+      </c>
+      <c r="N3" s="69">
+        <f>M3 / K3</f>
+        <v>1.6569641034621456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>74.66</v>
+      </c>
+      <c r="C4" s="68">
+        <v>330.6</v>
+      </c>
+      <c r="D4">
+        <f>B4 * C4</f>
+        <v>24682.596000000001</v>
+      </c>
+      <c r="E4">
+        <v>750</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1073.8</v>
+      </c>
+      <c r="H4">
+        <f>F4 + G4 - E4</f>
+        <v>323.79999999999995</v>
+      </c>
+      <c r="I4" s="26">
+        <f>H4 / D4</f>
+        <v>1.311855527676262E-2</v>
+      </c>
+      <c r="K4">
+        <v>4566.1000000000004</v>
+      </c>
+      <c r="L4">
+        <v>2419</v>
+      </c>
+      <c r="M4" s="70">
+        <f>D4 + H4</f>
+        <v>25006.396000000001</v>
+      </c>
+      <c r="N4" s="69">
+        <f>M4 / K4</f>
+        <v>5.4765327084382731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="e">
+        <f>AVERAGE(J2:J4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="69">
+        <f>AVERAGE(N2:N4)</f>
+        <v>2.6751084480492824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -2864,7 +3134,7 @@
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2873,7 +3143,7 @@
         <v>82639.0708193436</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2882,12 +3152,12 @@
         <v>212807.6808193436</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
@@ -2901,7 +3171,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -2915,7 +3185,7 @@
         <v>23188.987660783201</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -2928,7 +3198,7 @@
         <v>0.50769529314900563</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2945,7 +3215,7 @@
         <v>27009.058504179164</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -2962,7 +3232,7 @@
         <v>0.12691768643025464</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2983,7 +3253,7 @@
         <v>8.0876540165492741E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>

--- a/Case/CS3/FIN521_Case3.xlsx
+++ b/Case/CS3/FIN521_Case3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Case/CS3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Case/CS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500" activeTab="4"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="3" r:id="rId1"/>
@@ -25,23 +25,23 @@
     <definedName name="rf">Parameters!$C$2</definedName>
     <definedName name="tax">Parameters!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcMode="autoNoTable" iterate="1" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="162913" calcMode="autoNoTable" iterate="1" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>Cash &amp; Cash equivalents</t>
   </si>
@@ -324,31 +324,39 @@
   </si>
   <si>
     <t>EV / Revenue</t>
+  </si>
+  <si>
+    <t>Unlevered Cost of Capital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D / E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="167" formatCode="0.00_ "/>
-    <numFmt numFmtId="168" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -392,7 +400,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -441,7 +449,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -452,7 +460,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -460,7 +468,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -633,7 +641,7 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -707,10 +715,10 @@
     <xf numFmtId="37" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -732,20 +740,20 @@
     <xf numFmtId="37" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -759,8 +767,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1078,12 +1086,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1107,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -1115,7 +1123,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -1146,399 +1154,399 @@
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="4" width="5.33203125" style="1"/>
-    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.28515625" style="1"/>
+    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="260" width="5.33203125" style="1"/>
-    <col min="261" max="261" width="7.33203125" style="1" customWidth="1"/>
-    <col min="262" max="262" width="5.33203125" style="1"/>
-    <col min="263" max="263" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="6.1640625" style="1" customWidth="1"/>
-    <col min="265" max="265" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="516" width="5.33203125" style="1"/>
-    <col min="517" max="517" width="7.33203125" style="1" customWidth="1"/>
-    <col min="518" max="518" width="5.33203125" style="1"/>
-    <col min="519" max="519" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="6.1640625" style="1" customWidth="1"/>
-    <col min="521" max="521" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="772" width="5.33203125" style="1"/>
-    <col min="773" max="773" width="7.33203125" style="1" customWidth="1"/>
-    <col min="774" max="774" width="5.33203125" style="1"/>
-    <col min="775" max="775" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="6.1640625" style="1" customWidth="1"/>
-    <col min="777" max="777" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="1028" width="5.33203125" style="1"/>
-    <col min="1029" max="1029" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="5.33203125" style="1"/>
-    <col min="1031" max="1031" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1284" width="5.33203125" style="1"/>
-    <col min="1285" max="1285" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="5.33203125" style="1"/>
-    <col min="1287" max="1287" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1540" width="5.33203125" style="1"/>
-    <col min="1541" max="1541" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="5.33203125" style="1"/>
-    <col min="1543" max="1543" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1796" width="5.33203125" style="1"/>
-    <col min="1797" max="1797" width="7.33203125" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="5.33203125" style="1"/>
-    <col min="1799" max="1799" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="6.1640625" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2052" width="5.33203125" style="1"/>
-    <col min="2053" max="2053" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="5.33203125" style="1"/>
-    <col min="2055" max="2055" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2308" width="5.33203125" style="1"/>
-    <col min="2309" max="2309" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="5.33203125" style="1"/>
-    <col min="2311" max="2311" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2564" width="5.33203125" style="1"/>
-    <col min="2565" max="2565" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="5.33203125" style="1"/>
-    <col min="2567" max="2567" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2820" width="5.33203125" style="1"/>
-    <col min="2821" max="2821" width="7.33203125" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="5.33203125" style="1"/>
-    <col min="2823" max="2823" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3076" width="5.33203125" style="1"/>
-    <col min="3077" max="3077" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="5.33203125" style="1"/>
-    <col min="3079" max="3079" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3332" width="5.33203125" style="1"/>
-    <col min="3333" max="3333" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="5.33203125" style="1"/>
-    <col min="3335" max="3335" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3588" width="5.33203125" style="1"/>
-    <col min="3589" max="3589" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="5.33203125" style="1"/>
-    <col min="3591" max="3591" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3844" width="5.33203125" style="1"/>
-    <col min="3845" max="3845" width="7.33203125" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="5.33203125" style="1"/>
-    <col min="3847" max="3847" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="6.1640625" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4100" width="5.33203125" style="1"/>
-    <col min="4101" max="4101" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="5.33203125" style="1"/>
-    <col min="4103" max="4103" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4356" width="5.33203125" style="1"/>
-    <col min="4357" max="4357" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="5.33203125" style="1"/>
-    <col min="4359" max="4359" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4612" width="5.33203125" style="1"/>
-    <col min="4613" max="4613" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="5.33203125" style="1"/>
-    <col min="4615" max="4615" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4868" width="5.33203125" style="1"/>
-    <col min="4869" max="4869" width="7.33203125" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="5.33203125" style="1"/>
-    <col min="4871" max="4871" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5124" width="5.33203125" style="1"/>
-    <col min="5125" max="5125" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="5.33203125" style="1"/>
-    <col min="5127" max="5127" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5380" width="5.33203125" style="1"/>
-    <col min="5381" max="5381" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="5.33203125" style="1"/>
-    <col min="5383" max="5383" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5636" width="5.33203125" style="1"/>
-    <col min="5637" max="5637" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="5.33203125" style="1"/>
-    <col min="5639" max="5639" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5892" width="5.33203125" style="1"/>
-    <col min="5893" max="5893" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="5.33203125" style="1"/>
-    <col min="5895" max="5895" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="6.1640625" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6148" width="5.33203125" style="1"/>
-    <col min="6149" max="6149" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="5.33203125" style="1"/>
-    <col min="6151" max="6151" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6404" width="5.33203125" style="1"/>
-    <col min="6405" max="6405" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="5.33203125" style="1"/>
-    <col min="6407" max="6407" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6660" width="5.33203125" style="1"/>
-    <col min="6661" max="6661" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="5.33203125" style="1"/>
-    <col min="6663" max="6663" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6916" width="5.33203125" style="1"/>
-    <col min="6917" max="6917" width="7.33203125" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="5.33203125" style="1"/>
-    <col min="6919" max="6919" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7172" width="5.33203125" style="1"/>
-    <col min="7173" max="7173" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="5.33203125" style="1"/>
-    <col min="7175" max="7175" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7428" width="5.33203125" style="1"/>
-    <col min="7429" max="7429" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="5.33203125" style="1"/>
-    <col min="7431" max="7431" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7684" width="5.33203125" style="1"/>
-    <col min="7685" max="7685" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="5.33203125" style="1"/>
-    <col min="7687" max="7687" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7940" width="5.33203125" style="1"/>
-    <col min="7941" max="7941" width="7.33203125" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="5.33203125" style="1"/>
-    <col min="7943" max="7943" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="6.1640625" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8196" width="5.33203125" style="1"/>
-    <col min="8197" max="8197" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="5.33203125" style="1"/>
-    <col min="8199" max="8199" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8452" width="5.33203125" style="1"/>
-    <col min="8453" max="8453" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="5.33203125" style="1"/>
-    <col min="8455" max="8455" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8708" width="5.33203125" style="1"/>
-    <col min="8709" max="8709" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="5.33203125" style="1"/>
-    <col min="8711" max="8711" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8964" width="5.33203125" style="1"/>
-    <col min="8965" max="8965" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="5.33203125" style="1"/>
-    <col min="8967" max="8967" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="6.1640625" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9220" width="5.33203125" style="1"/>
-    <col min="9221" max="9221" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="5.33203125" style="1"/>
-    <col min="9223" max="9223" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9476" width="5.33203125" style="1"/>
-    <col min="9477" max="9477" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="5.33203125" style="1"/>
-    <col min="9479" max="9479" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9732" width="5.33203125" style="1"/>
-    <col min="9733" max="9733" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="5.33203125" style="1"/>
-    <col min="9735" max="9735" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9988" width="5.33203125" style="1"/>
-    <col min="9989" max="9989" width="7.33203125" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="5.33203125" style="1"/>
-    <col min="9991" max="9991" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="6.1640625" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10244" width="5.33203125" style="1"/>
-    <col min="10245" max="10245" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="5.33203125" style="1"/>
-    <col min="10247" max="10247" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10500" width="5.33203125" style="1"/>
-    <col min="10501" max="10501" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="5.33203125" style="1"/>
-    <col min="10503" max="10503" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10756" width="5.33203125" style="1"/>
-    <col min="10757" max="10757" width="7.33203125" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="5.33203125" style="1"/>
-    <col min="10759" max="10759" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="6.1640625" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11012" width="5.33203125" style="1"/>
-    <col min="11013" max="11013" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="5.33203125" style="1"/>
-    <col min="11015" max="11015" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11268" width="5.33203125" style="1"/>
-    <col min="11269" max="11269" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="5.33203125" style="1"/>
-    <col min="11271" max="11271" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11524" width="5.33203125" style="1"/>
-    <col min="11525" max="11525" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="5.33203125" style="1"/>
-    <col min="11527" max="11527" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11780" width="5.33203125" style="1"/>
-    <col min="11781" max="11781" width="7.33203125" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="5.33203125" style="1"/>
-    <col min="11783" max="11783" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="6.1640625" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12036" width="5.33203125" style="1"/>
-    <col min="12037" max="12037" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="5.33203125" style="1"/>
-    <col min="12039" max="12039" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12292" width="5.33203125" style="1"/>
-    <col min="12293" max="12293" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="5.33203125" style="1"/>
-    <col min="12295" max="12295" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12548" width="5.33203125" style="1"/>
-    <col min="12549" max="12549" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="5.33203125" style="1"/>
-    <col min="12551" max="12551" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12804" width="5.33203125" style="1"/>
-    <col min="12805" max="12805" width="7.33203125" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="5.33203125" style="1"/>
-    <col min="12807" max="12807" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="6.1640625" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13060" width="5.33203125" style="1"/>
-    <col min="13061" max="13061" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="5.33203125" style="1"/>
-    <col min="13063" max="13063" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13316" width="5.33203125" style="1"/>
-    <col min="13317" max="13317" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="5.33203125" style="1"/>
-    <col min="13319" max="13319" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13572" width="5.33203125" style="1"/>
-    <col min="13573" max="13573" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="5.33203125" style="1"/>
-    <col min="13575" max="13575" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13828" width="5.33203125" style="1"/>
-    <col min="13829" max="13829" width="7.33203125" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="5.33203125" style="1"/>
-    <col min="13831" max="13831" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="6.1640625" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14084" width="5.33203125" style="1"/>
-    <col min="14085" max="14085" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="5.33203125" style="1"/>
-    <col min="14087" max="14087" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14340" width="5.33203125" style="1"/>
-    <col min="14341" max="14341" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="5.33203125" style="1"/>
-    <col min="14343" max="14343" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14596" width="5.33203125" style="1"/>
-    <col min="14597" max="14597" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="5.33203125" style="1"/>
-    <col min="14599" max="14599" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14852" width="5.33203125" style="1"/>
-    <col min="14853" max="14853" width="7.33203125" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="5.33203125" style="1"/>
-    <col min="14855" max="14855" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="6.1640625" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15108" width="5.33203125" style="1"/>
-    <col min="15109" max="15109" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="5.33203125" style="1"/>
-    <col min="15111" max="15111" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15364" width="5.33203125" style="1"/>
-    <col min="15365" max="15365" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="5.33203125" style="1"/>
-    <col min="15367" max="15367" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15620" width="5.33203125" style="1"/>
-    <col min="15621" max="15621" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="5.33203125" style="1"/>
-    <col min="15623" max="15623" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15876" width="5.33203125" style="1"/>
-    <col min="15877" max="15877" width="7.33203125" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="5.33203125" style="1"/>
-    <col min="15879" max="15879" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="6.1640625" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16132" width="5.33203125" style="1"/>
-    <col min="16133" max="16133" width="7.33203125" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="5.33203125" style="1"/>
-    <col min="16135" max="16135" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="6.1640625" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="5.33203125" style="1"/>
+    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="260" width="5.28515625" style="1"/>
+    <col min="261" max="261" width="7.28515625" style="1" customWidth="1"/>
+    <col min="262" max="262" width="5.28515625" style="1"/>
+    <col min="263" max="263" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="6.140625" style="1" customWidth="1"/>
+    <col min="265" max="265" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="516" width="5.28515625" style="1"/>
+    <col min="517" max="517" width="7.28515625" style="1" customWidth="1"/>
+    <col min="518" max="518" width="5.28515625" style="1"/>
+    <col min="519" max="519" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="6.140625" style="1" customWidth="1"/>
+    <col min="521" max="521" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="772" width="5.28515625" style="1"/>
+    <col min="773" max="773" width="7.28515625" style="1" customWidth="1"/>
+    <col min="774" max="774" width="5.28515625" style="1"/>
+    <col min="775" max="775" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="6.140625" style="1" customWidth="1"/>
+    <col min="777" max="777" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="1028" width="5.28515625" style="1"/>
+    <col min="1029" max="1029" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="5.28515625" style="1"/>
+    <col min="1031" max="1031" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="6.140625" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1284" width="5.28515625" style="1"/>
+    <col min="1285" max="1285" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="5.28515625" style="1"/>
+    <col min="1287" max="1287" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="6.140625" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1540" width="5.28515625" style="1"/>
+    <col min="1541" max="1541" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="5.28515625" style="1"/>
+    <col min="1543" max="1543" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="6.140625" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1796" width="5.28515625" style="1"/>
+    <col min="1797" max="1797" width="7.28515625" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="5.28515625" style="1"/>
+    <col min="1799" max="1799" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="6.140625" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2052" width="5.28515625" style="1"/>
+    <col min="2053" max="2053" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="5.28515625" style="1"/>
+    <col min="2055" max="2055" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="6.140625" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2308" width="5.28515625" style="1"/>
+    <col min="2309" max="2309" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="5.28515625" style="1"/>
+    <col min="2311" max="2311" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="6.140625" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2564" width="5.28515625" style="1"/>
+    <col min="2565" max="2565" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="5.28515625" style="1"/>
+    <col min="2567" max="2567" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="6.140625" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2820" width="5.28515625" style="1"/>
+    <col min="2821" max="2821" width="7.28515625" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="5.28515625" style="1"/>
+    <col min="2823" max="2823" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="6.140625" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3076" width="5.28515625" style="1"/>
+    <col min="3077" max="3077" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="5.28515625" style="1"/>
+    <col min="3079" max="3079" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="6.140625" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3332" width="5.28515625" style="1"/>
+    <col min="3333" max="3333" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="5.28515625" style="1"/>
+    <col min="3335" max="3335" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="6.140625" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3588" width="5.28515625" style="1"/>
+    <col min="3589" max="3589" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="5.28515625" style="1"/>
+    <col min="3591" max="3591" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="6.140625" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3844" width="5.28515625" style="1"/>
+    <col min="3845" max="3845" width="7.28515625" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="5.28515625" style="1"/>
+    <col min="3847" max="3847" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="6.140625" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4100" width="5.28515625" style="1"/>
+    <col min="4101" max="4101" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="5.28515625" style="1"/>
+    <col min="4103" max="4103" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="6.140625" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4356" width="5.28515625" style="1"/>
+    <col min="4357" max="4357" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="5.28515625" style="1"/>
+    <col min="4359" max="4359" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="6.140625" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4612" width="5.28515625" style="1"/>
+    <col min="4613" max="4613" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="5.28515625" style="1"/>
+    <col min="4615" max="4615" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="6.140625" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4868" width="5.28515625" style="1"/>
+    <col min="4869" max="4869" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="5.28515625" style="1"/>
+    <col min="4871" max="4871" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="6.140625" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5124" width="5.28515625" style="1"/>
+    <col min="5125" max="5125" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="5.28515625" style="1"/>
+    <col min="5127" max="5127" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="6.140625" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5380" width="5.28515625" style="1"/>
+    <col min="5381" max="5381" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="5.28515625" style="1"/>
+    <col min="5383" max="5383" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="6.140625" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5636" width="5.28515625" style="1"/>
+    <col min="5637" max="5637" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="5.28515625" style="1"/>
+    <col min="5639" max="5639" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="6.140625" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5892" width="5.28515625" style="1"/>
+    <col min="5893" max="5893" width="7.28515625" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="5.28515625" style="1"/>
+    <col min="5895" max="5895" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="6.140625" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6148" width="5.28515625" style="1"/>
+    <col min="6149" max="6149" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="5.28515625" style="1"/>
+    <col min="6151" max="6151" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="6.140625" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6404" width="5.28515625" style="1"/>
+    <col min="6405" max="6405" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="5.28515625" style="1"/>
+    <col min="6407" max="6407" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="6.140625" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6660" width="5.28515625" style="1"/>
+    <col min="6661" max="6661" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="5.28515625" style="1"/>
+    <col min="6663" max="6663" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="6.140625" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6916" width="5.28515625" style="1"/>
+    <col min="6917" max="6917" width="7.28515625" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="5.28515625" style="1"/>
+    <col min="6919" max="6919" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="6.140625" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7172" width="5.28515625" style="1"/>
+    <col min="7173" max="7173" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="5.28515625" style="1"/>
+    <col min="7175" max="7175" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="6.140625" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7428" width="5.28515625" style="1"/>
+    <col min="7429" max="7429" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="5.28515625" style="1"/>
+    <col min="7431" max="7431" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="6.140625" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7684" width="5.28515625" style="1"/>
+    <col min="7685" max="7685" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="5.28515625" style="1"/>
+    <col min="7687" max="7687" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="6.140625" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7940" width="5.28515625" style="1"/>
+    <col min="7941" max="7941" width="7.28515625" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="5.28515625" style="1"/>
+    <col min="7943" max="7943" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="6.140625" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8196" width="5.28515625" style="1"/>
+    <col min="8197" max="8197" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="5.28515625" style="1"/>
+    <col min="8199" max="8199" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="6.140625" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8452" width="5.28515625" style="1"/>
+    <col min="8453" max="8453" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="5.28515625" style="1"/>
+    <col min="8455" max="8455" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="6.140625" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8708" width="5.28515625" style="1"/>
+    <col min="8709" max="8709" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="5.28515625" style="1"/>
+    <col min="8711" max="8711" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="6.140625" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8964" width="5.28515625" style="1"/>
+    <col min="8965" max="8965" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="5.28515625" style="1"/>
+    <col min="8967" max="8967" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="6.140625" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9220" width="5.28515625" style="1"/>
+    <col min="9221" max="9221" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="5.28515625" style="1"/>
+    <col min="9223" max="9223" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="6.140625" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9476" width="5.28515625" style="1"/>
+    <col min="9477" max="9477" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="5.28515625" style="1"/>
+    <col min="9479" max="9479" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="6.140625" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9732" width="5.28515625" style="1"/>
+    <col min="9733" max="9733" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="5.28515625" style="1"/>
+    <col min="9735" max="9735" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="6.140625" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9988" width="5.28515625" style="1"/>
+    <col min="9989" max="9989" width="7.28515625" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="5.28515625" style="1"/>
+    <col min="9991" max="9991" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="6.140625" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10244" width="5.28515625" style="1"/>
+    <col min="10245" max="10245" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="5.28515625" style="1"/>
+    <col min="10247" max="10247" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="6.140625" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10500" width="5.28515625" style="1"/>
+    <col min="10501" max="10501" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="5.28515625" style="1"/>
+    <col min="10503" max="10503" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="6.140625" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10756" width="5.28515625" style="1"/>
+    <col min="10757" max="10757" width="7.28515625" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="5.28515625" style="1"/>
+    <col min="10759" max="10759" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="6.140625" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11012" width="5.28515625" style="1"/>
+    <col min="11013" max="11013" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="5.28515625" style="1"/>
+    <col min="11015" max="11015" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="6.140625" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11268" width="5.28515625" style="1"/>
+    <col min="11269" max="11269" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="5.28515625" style="1"/>
+    <col min="11271" max="11271" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="6.140625" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11524" width="5.28515625" style="1"/>
+    <col min="11525" max="11525" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="5.28515625" style="1"/>
+    <col min="11527" max="11527" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="6.140625" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11780" width="5.28515625" style="1"/>
+    <col min="11781" max="11781" width="7.28515625" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="5.28515625" style="1"/>
+    <col min="11783" max="11783" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="6.140625" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12036" width="5.28515625" style="1"/>
+    <col min="12037" max="12037" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="5.28515625" style="1"/>
+    <col min="12039" max="12039" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="6.140625" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12292" width="5.28515625" style="1"/>
+    <col min="12293" max="12293" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="5.28515625" style="1"/>
+    <col min="12295" max="12295" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="6.140625" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12548" width="5.28515625" style="1"/>
+    <col min="12549" max="12549" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="5.28515625" style="1"/>
+    <col min="12551" max="12551" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="6.140625" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12804" width="5.28515625" style="1"/>
+    <col min="12805" max="12805" width="7.28515625" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="5.28515625" style="1"/>
+    <col min="12807" max="12807" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="6.140625" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13060" width="5.28515625" style="1"/>
+    <col min="13061" max="13061" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="5.28515625" style="1"/>
+    <col min="13063" max="13063" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="6.140625" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13316" width="5.28515625" style="1"/>
+    <col min="13317" max="13317" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="5.28515625" style="1"/>
+    <col min="13319" max="13319" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="6.140625" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13572" width="5.28515625" style="1"/>
+    <col min="13573" max="13573" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="5.28515625" style="1"/>
+    <col min="13575" max="13575" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="6.140625" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13828" width="5.28515625" style="1"/>
+    <col min="13829" max="13829" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="5.28515625" style="1"/>
+    <col min="13831" max="13831" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="6.140625" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14084" width="5.28515625" style="1"/>
+    <col min="14085" max="14085" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="5.28515625" style="1"/>
+    <col min="14087" max="14087" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="6.140625" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14340" width="5.28515625" style="1"/>
+    <col min="14341" max="14341" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="5.28515625" style="1"/>
+    <col min="14343" max="14343" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="6.140625" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14596" width="5.28515625" style="1"/>
+    <col min="14597" max="14597" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="5.28515625" style="1"/>
+    <col min="14599" max="14599" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="6.140625" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14852" width="5.28515625" style="1"/>
+    <col min="14853" max="14853" width="7.28515625" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="5.28515625" style="1"/>
+    <col min="14855" max="14855" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="6.140625" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15108" width="5.28515625" style="1"/>
+    <col min="15109" max="15109" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="5.28515625" style="1"/>
+    <col min="15111" max="15111" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="6.140625" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15364" width="5.28515625" style="1"/>
+    <col min="15365" max="15365" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="5.28515625" style="1"/>
+    <col min="15367" max="15367" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="6.140625" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15620" width="5.28515625" style="1"/>
+    <col min="15621" max="15621" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="5.28515625" style="1"/>
+    <col min="15623" max="15623" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="6.140625" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15876" width="5.28515625" style="1"/>
+    <col min="15877" max="15877" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="5.28515625" style="1"/>
+    <col min="15879" max="15879" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="6.140625" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16132" width="5.28515625" style="1"/>
+    <col min="16133" max="16133" width="7.28515625" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="5.28515625" style="1"/>
+    <col min="16135" max="16135" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="6.140625" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="5.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="36" customFormat="1">
       <c r="A1" s="36" t="str">
         <f>$C$6</f>
         <v>MIDLAND ENERGY RESOURCES</v>
@@ -1552,13 +1560,13 @@
         <v>Comparable Companies</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1">
       <c r="R2" s="39"/>
     </row>
-    <row r="3" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="40" customFormat="1" ht="16">
       <c r="R3" s="41"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1582,7 +1590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1590,13 +1598,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" s="43" customFormat="1">
       <c r="R51" s="44" t="str">
         <f>$C$9</f>
         <v>Harvard Business Publishing</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" ht="19">
       <c r="A52" s="36" t="str">
         <f>$C$6</f>
         <v>MIDLAND ENERGY RESOURCES</v>
@@ -1625,7 +1633,7 @@
         <v>Comparable Companies</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="2" customHeight="1">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -1645,7 +1653,7 @@
       <c r="Q53" s="38"/>
       <c r="R53" s="39"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -1665,7 +1673,7 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="41"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -1689,7 +1697,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" s="23" t="s">
         <v>37</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" s="29" t="s">
         <v>44</v>
       </c>
@@ -1756,7 +1764,7 @@
       </c>
       <c r="M58" s="46"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" s="29" t="s">
         <v>45</v>
       </c>
@@ -1790,7 +1798,7 @@
         <v>4.7939925868322373</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" s="29" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1832,7 @@
         <v>3.35772468490353</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" s="29" t="s">
         <v>47</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>3.1739692770662313</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" s="61" t="s">
         <v>48</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>3.7013046928272724</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -1897,7 +1905,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" s="23" t="s">
         <v>49</v>
       </c>
@@ -1913,7 +1921,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="29" t="s">
         <v>50</v>
       </c>
@@ -1947,7 +1955,7 @@
         <v>0.41414165869818031</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12">
       <c r="A66" s="29" t="s">
         <v>51</v>
       </c>
@@ -1981,7 +1989,7 @@
         <v>0.27429606819294844</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12">
       <c r="A67" s="29" t="s">
         <v>52</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>0.35127021261599645</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12">
       <c r="A68" s="29" t="s">
         <v>53</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>0.11465508640781165</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12">
       <c r="A69" s="29" t="s">
         <v>54</v>
       </c>
@@ -2083,7 +2091,7 @@
         <v>0.49461103601418033</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12">
       <c r="A70" s="29" t="s">
         <v>55</v>
       </c>
@@ -2117,7 +2125,7 @@
         <v>0.65688785540555428</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12">
       <c r="A71" s="29" t="s">
         <v>56</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>1.2480051347083678</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12">
       <c r="A72" s="61" t="s">
         <v>48</v>
       </c>
@@ -2176,7 +2184,7 @@
         <v>0.50769529314900563</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -2190,7 +2198,7 @@
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12">
       <c r="A74" s="21" t="s">
         <v>57</v>
       </c>
@@ -2218,38 +2226,38 @@
       <c r="K74" s="29"/>
       <c r="L74" s="56"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12">
       <c r="E75" s="3"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12">
       <c r="E76" s="3"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12">
       <c r="F77" s="48"/>
       <c r="H77" s="25"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12">
       <c r="H78" s="25"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12">
       <c r="E79" s="49"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12">
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:13">
       <c r="H81" s="9"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="86" spans="7:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:13">
       <c r="G86" s="45"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="M86" s="25"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -2280,19 +2288,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2303,7 +2311,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2314,7 +2322,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2325,7 +2333,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2336,7 +2344,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2348,14 +2356,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
@@ -2364,7 +2372,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2377,7 +2385,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
@@ -2390,7 +2398,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2411,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2411,7 +2419,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
@@ -2421,7 +2429,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2442,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -2446,7 +2454,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2467,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2468,12 +2476,12 @@
         <v>0.1123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2490,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="24" t="s">
         <v>11</v>
       </c>
@@ -2490,7 +2498,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2503,7 +2511,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2516,7 +2524,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2524,7 +2532,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="28" t="s">
         <v>12</v>
       </c>
@@ -2534,7 +2542,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2547,7 +2555,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2560,7 +2568,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="30" t="s">
         <v>13</v>
       </c>
@@ -2573,7 +2581,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="29" t="s">
         <v>14</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>0.61167251811038981</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="29" t="s">
         <v>15</v>
       </c>
@@ -2591,7 +2599,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="29" t="s">
         <v>12</v>
       </c>
@@ -2600,65 +2608,83 @@
         <v>8.0876540165492741E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="26">
+        <f>B27 * B22 + B28 * B16</f>
+        <v>8.900035108662338E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B34" s="26">
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="29" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="26">
-        <f>1 - B33</f>
+      <c r="B35" s="26">
+        <f>1 - B34</f>
         <v>0.57800000000000007</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="26">
+        <f>B34 / B35</f>
+        <v>0.73010380622837356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B37" s="26">
         <f xml:space="preserve"> rf + 1.62%</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="26">
-        <f>B16</f>
-        <v>0.1123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="29" t="s">
+      <c r="B38" s="26">
+        <f>B33 + B36 * (B33 - B37)</f>
+        <v>0.10579299495955602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B39" s="31">
         <f>tax</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="27">
-        <f>B33 * B35 * (1 - B37) +B34 * B36</f>
-        <v>8.1620600000000001E-2</v>
+      <c r="B40" s="27">
+        <f>B34 * B37 * (1 - B39) +B35 * B38</f>
+        <v>7.7859551086623388E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2675,16 +2701,16 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2692,7 +2718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -2706,7 +2732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2736,7 +2762,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2762,7 +2788,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2818,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2848,7 @@
         <v>5.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2850,7 +2876,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2866,7 +2892,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2882,7 +2908,7 @@
         <v>8.5954799999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2897,17 +2923,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="B1" t="s">
         <v>76</v>
       </c>
@@ -2948,7 +2974,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2995,7 +3021,7 @@
         <v>0.89182853224742786</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3041,7 +3067,7 @@
         <v>1.6569641034621456</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -3087,7 +3113,7 @@
         <v>5.4765327084382731</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -3101,6 +3127,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3111,20 +3138,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3134,7 +3161,7 @@
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3143,7 +3170,7 @@
         <v>82639.0708193436</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3152,12 +3179,12 @@
         <v>212807.6808193436</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3198,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -3185,7 +3212,7 @@
         <v>23188.987660783201</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3198,7 +3225,7 @@
         <v>0.50769529314900563</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -3215,7 +3242,7 @@
         <v>27009.058504179164</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3232,7 +3259,7 @@
         <v>0.12691768643025464</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3253,7 +3280,7 @@
         <v>8.0876540165492741E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>

--- a/Case/CS3/FIN521_Case3.xlsx
+++ b/Case/CS3/FIN521_Case3.xlsx
@@ -1,47 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/park-wanbae/Desktop/MFE/2018-1/FIN521/Case/CS3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanbaep2/Desktop/FIN521/Case/CS3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500" activeTab="2"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="25500" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="3" r:id="rId1"/>
     <sheet name="Comps" sheetId="4" r:id="rId2"/>
     <sheet name="Q2" sheetId="1" r:id="rId3"/>
     <sheet name="Q4" sheetId="2" r:id="rId4"/>
-    <sheet name="Q5" sheetId="6" r:id="rId5"/>
+    <sheet name="Q5" sheetId="7" r:id="rId5"/>
     <sheet name="Q6" sheetId="5" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="mrp">Parameters!$C$3</definedName>
     <definedName name="mve">Parameters!$C$8</definedName>
     <definedName name="rf">Parameters!$C$2</definedName>
+    <definedName name="risk_prem">#REF!</definedName>
     <definedName name="tax">Parameters!$C$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="autoNoTable" iterate="1" calcOnSave="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="107">
   <si>
     <t>Cash &amp; Cash equivalents</t>
   </si>
@@ -284,79 +288,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ExxonMobil</t>
-  </si>
-  <si>
-    <t>Chevron Phillips Chemical</t>
-  </si>
-  <si>
-    <t>Equity Market Value</t>
-  </si>
-  <si>
-    <t>Net Debt</t>
-  </si>
-  <si>
-    <t>Equity Beta</t>
-  </si>
-  <si>
-    <t>LTM Revenue</t>
-  </si>
-  <si>
-    <t>LTM Earnings</t>
-  </si>
-  <si>
-    <t>Share Price</t>
-  </si>
-  <si>
-    <t>Outstanding Shares</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Baker Hughes</t>
-  </si>
-  <si>
-    <t>Short Term Debt</t>
-  </si>
-  <si>
-    <t>Enterprise Value</t>
-  </si>
-  <si>
-    <t>EV / Revenue</t>
-  </si>
-  <si>
     <t>Unlevered Cost of Capital</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D / E</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We got comparable companies beta in 2007 from Bloomberg.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>So, We use the average beta below the table to get a cost of equtiy</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta in 2007</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASF</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dow Chemical</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ineos</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dupont</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Formosa Plastics</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mitsubishi Chemical</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unleveraged</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Beta</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Beta</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>E/V</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>D/V</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equity Beta</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debt Beta</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>WACC</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Premium</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debt Beta</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debt to Value</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of Capital</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>After D/V</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assumption</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petrochemicals spread</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Above D/V 40%, we need to reflect Petrochemicals credit rating.</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Cost of Debt</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>So, at D/V 40%,  addded 1.35%(Petrochemicals spread) to 5.33%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>spread after D/V 40%</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">After do this, as D/V increases 10% added 0.2% spread </t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rd = Rf + spread</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equtiy Beta increases as D/V increases</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>WACC decreases as D/V increases</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="#,##0.000_);\(#,##0.000\)"/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000_);\(#,##0.000\)"/>
+    <numFmt numFmtId="167" formatCode="0.00_ "/>
+    <numFmt numFmtId="168" formatCode="#,##0_ "/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="171" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -400,7 +508,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -449,7 +557,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -460,7 +568,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -468,7 +576,7 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -527,6 +635,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -554,7 +675,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -624,16 +745,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,7 +834,7 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -715,10 +908,10 @@
     <xf numFmtId="37" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -740,35 +933,76 @@
     <xf numFmtId="37" fontId="21" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="37" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="20" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="20" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="20" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="기본" xfId="0" builtinId="0"/>
-    <cellStyle name="백분율" xfId="1" builtinId="5"/>
+  <cellStyles count="4">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,6 +1015,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
+              <a:t>Equity Beta</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$AA$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Equity Beta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="666699"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q5'!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q5'!$AA$17:$AA$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.804</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0184</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1354389424"/>
+        <c:axId val="-1354387376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1354389424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="C0C0C0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="맑은 고딕"/>
+                <a:ea typeface="맑은 고딕"/>
+                <a:cs typeface="맑은 고딕"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1354387376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1354387376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1354389424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="C0C0C0"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
+              <a:t>WACC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$AE$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4F81BD"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="666699"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q5'!$AG$17:$AG$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q5'!$AE$17:$AE$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0766</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.073536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.070472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.067408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.064344</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.058216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.055152</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.052088</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.049024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1354325744"/>
+        <c:axId val="-1354314832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1354325744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="C0C0C0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="333333"/>
+                </a:solidFill>
+                <a:latin typeface="맑은 고딕"/>
+                <a:ea typeface="맑은 고딕"/>
+                <a:cs typeface="맑은 고딕"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1354314832"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1354314832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="C0C0C0"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1354325744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="3175">
+      <a:solidFill>
+        <a:srgbClr val="C0C0C0"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="88900" y="457200"/>
+          <a:ext cx="6540500" cy="4279900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Exhibit 1"/>
+      <sheetName val="Exhibit 2"/>
+      <sheetName val="Exhibit 3"/>
+      <sheetName val="Exhibit 4"/>
+      <sheetName val="Exhibit 5"/>
+      <sheetName val="Others"/>
+      <sheetName val="5번"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="Q5">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="Q7">
+            <v>4.9799999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>1.35E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="P46">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="P47">
+            <v>0.05</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="16">
+          <cell r="AA16" t="str">
+            <v>Equity Beta</v>
+          </cell>
+          <cell r="AE16" t="str">
+            <v>WACC</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="AA17">
+            <v>0.53600000000000003</v>
+          </cell>
+          <cell r="AE17">
+            <v>7.6600000000000001E-2</v>
+          </cell>
+          <cell r="AG17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="AA18">
+            <v>0.58960000000000001</v>
+          </cell>
+          <cell r="AE18">
+            <v>7.353599999999999E-2</v>
+          </cell>
+          <cell r="AG18">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="AA19">
+            <v>0.64319999999999999</v>
+          </cell>
+          <cell r="AE19">
+            <v>7.0472000000000007E-2</v>
+          </cell>
+          <cell r="AG19">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="AA20">
+            <v>0.69680000000000009</v>
+          </cell>
+          <cell r="AE20">
+            <v>6.7407999999999996E-2</v>
+          </cell>
+          <cell r="AG20">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="AA21">
+            <v>0.75040000000000007</v>
+          </cell>
+          <cell r="AE21">
+            <v>6.4343999999999998E-2</v>
+          </cell>
+          <cell r="AG21">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="AA22">
+            <v>0.80400000000000005</v>
+          </cell>
+          <cell r="AE22">
+            <v>6.1280000000000001E-2</v>
+          </cell>
+          <cell r="AG22">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="AA23">
+            <v>0.85760000000000003</v>
+          </cell>
+          <cell r="AE23">
+            <v>5.8215999999999997E-2</v>
+          </cell>
+          <cell r="AG23">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="AA24">
+            <v>0.91120000000000012</v>
+          </cell>
+          <cell r="AE24">
+            <v>5.5152E-2</v>
+          </cell>
+          <cell r="AG24">
+            <v>70</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="AA25">
+            <v>0.96479999999999999</v>
+          </cell>
+          <cell r="AE25">
+            <v>5.2088000000000002E-2</v>
+          </cell>
+          <cell r="AG25">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="AA26">
+            <v>1.0184</v>
+          </cell>
+          <cell r="AE26">
+            <v>4.9023999999999998E-2</v>
+          </cell>
+          <cell r="AG26">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="AE27">
+            <v>4.5960000000000001E-2</v>
+          </cell>
+          <cell r="AG27">
+            <v>100</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,16 +2273,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +2288,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>23</v>
       </c>
@@ -1107,7 +2296,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +2304,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>65</v>
       </c>
@@ -1123,7 +2312,7 @@
         <v>44.11</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>66</v>
       </c>
@@ -1131,7 +2320,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -1154,399 +2343,399 @@
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="5.28515625" style="1"/>
-    <col min="5" max="5" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="5.33203125" style="1"/>
+    <col min="5" max="5" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="260" width="5.28515625" style="1"/>
-    <col min="261" max="261" width="7.28515625" style="1" customWidth="1"/>
-    <col min="262" max="262" width="5.28515625" style="1"/>
-    <col min="263" max="263" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="6.140625" style="1" customWidth="1"/>
-    <col min="265" max="265" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="266" max="516" width="5.28515625" style="1"/>
-    <col min="517" max="517" width="7.28515625" style="1" customWidth="1"/>
-    <col min="518" max="518" width="5.28515625" style="1"/>
-    <col min="519" max="519" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="6.140625" style="1" customWidth="1"/>
-    <col min="521" max="521" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="522" max="772" width="5.28515625" style="1"/>
-    <col min="773" max="773" width="7.28515625" style="1" customWidth="1"/>
-    <col min="774" max="774" width="5.28515625" style="1"/>
-    <col min="775" max="775" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="6.140625" style="1" customWidth="1"/>
-    <col min="777" max="777" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="778" max="1028" width="5.28515625" style="1"/>
-    <col min="1029" max="1029" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="5.28515625" style="1"/>
-    <col min="1031" max="1031" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="6.140625" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1284" width="5.28515625" style="1"/>
-    <col min="1285" max="1285" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="5.28515625" style="1"/>
-    <col min="1287" max="1287" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="6.140625" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1540" width="5.28515625" style="1"/>
-    <col min="1541" max="1541" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="5.28515625" style="1"/>
-    <col min="1543" max="1543" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="6.140625" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1796" width="5.28515625" style="1"/>
-    <col min="1797" max="1797" width="7.28515625" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="5.28515625" style="1"/>
-    <col min="1799" max="1799" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="6.140625" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="1802" max="2052" width="5.28515625" style="1"/>
-    <col min="2053" max="2053" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="5.28515625" style="1"/>
-    <col min="2055" max="2055" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="6.140625" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2308" width="5.28515625" style="1"/>
-    <col min="2309" max="2309" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="5.28515625" style="1"/>
-    <col min="2311" max="2311" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="6.140625" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2564" width="5.28515625" style="1"/>
-    <col min="2565" max="2565" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="5.28515625" style="1"/>
-    <col min="2567" max="2567" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="6.140625" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2820" width="5.28515625" style="1"/>
-    <col min="2821" max="2821" width="7.28515625" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="5.28515625" style="1"/>
-    <col min="2823" max="2823" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="6.140625" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2826" max="3076" width="5.28515625" style="1"/>
-    <col min="3077" max="3077" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="5.28515625" style="1"/>
-    <col min="3079" max="3079" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="6.140625" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3332" width="5.28515625" style="1"/>
-    <col min="3333" max="3333" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="5.28515625" style="1"/>
-    <col min="3335" max="3335" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="6.140625" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3588" width="5.28515625" style="1"/>
-    <col min="3589" max="3589" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="5.28515625" style="1"/>
-    <col min="3591" max="3591" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="6.140625" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3844" width="5.28515625" style="1"/>
-    <col min="3845" max="3845" width="7.28515625" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="5.28515625" style="1"/>
-    <col min="3847" max="3847" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="6.140625" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3850" max="4100" width="5.28515625" style="1"/>
-    <col min="4101" max="4101" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="5.28515625" style="1"/>
-    <col min="4103" max="4103" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="6.140625" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4356" width="5.28515625" style="1"/>
-    <col min="4357" max="4357" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="5.28515625" style="1"/>
-    <col min="4359" max="4359" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="6.140625" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4612" width="5.28515625" style="1"/>
-    <col min="4613" max="4613" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="5.28515625" style="1"/>
-    <col min="4615" max="4615" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="6.140625" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4868" width="5.28515625" style="1"/>
-    <col min="4869" max="4869" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="5.28515625" style="1"/>
-    <col min="4871" max="4871" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="6.140625" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4874" max="5124" width="5.28515625" style="1"/>
-    <col min="5125" max="5125" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="5.28515625" style="1"/>
-    <col min="5127" max="5127" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="6.140625" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5380" width="5.28515625" style="1"/>
-    <col min="5381" max="5381" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="5.28515625" style="1"/>
-    <col min="5383" max="5383" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="6.140625" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5636" width="5.28515625" style="1"/>
-    <col min="5637" max="5637" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="5.28515625" style="1"/>
-    <col min="5639" max="5639" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="6.140625" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5892" width="5.28515625" style="1"/>
-    <col min="5893" max="5893" width="7.28515625" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="5.28515625" style="1"/>
-    <col min="5895" max="5895" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="6.140625" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5898" max="6148" width="5.28515625" style="1"/>
-    <col min="6149" max="6149" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="5.28515625" style="1"/>
-    <col min="6151" max="6151" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="6.140625" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6404" width="5.28515625" style="1"/>
-    <col min="6405" max="6405" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="5.28515625" style="1"/>
-    <col min="6407" max="6407" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="6.140625" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6660" width="5.28515625" style="1"/>
-    <col min="6661" max="6661" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="5.28515625" style="1"/>
-    <col min="6663" max="6663" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="6.140625" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6916" width="5.28515625" style="1"/>
-    <col min="6917" max="6917" width="7.28515625" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="5.28515625" style="1"/>
-    <col min="6919" max="6919" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="6.140625" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6922" max="7172" width="5.28515625" style="1"/>
-    <col min="7173" max="7173" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="5.28515625" style="1"/>
-    <col min="7175" max="7175" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="6.140625" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7428" width="5.28515625" style="1"/>
-    <col min="7429" max="7429" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="5.28515625" style="1"/>
-    <col min="7431" max="7431" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="6.140625" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7684" width="5.28515625" style="1"/>
-    <col min="7685" max="7685" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="5.28515625" style="1"/>
-    <col min="7687" max="7687" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="6.140625" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7940" width="5.28515625" style="1"/>
-    <col min="7941" max="7941" width="7.28515625" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="5.28515625" style="1"/>
-    <col min="7943" max="7943" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="6.140625" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7946" max="8196" width="5.28515625" style="1"/>
-    <col min="8197" max="8197" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="5.28515625" style="1"/>
-    <col min="8199" max="8199" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="6.140625" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8452" width="5.28515625" style="1"/>
-    <col min="8453" max="8453" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="5.28515625" style="1"/>
-    <col min="8455" max="8455" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="6.140625" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8708" width="5.28515625" style="1"/>
-    <col min="8709" max="8709" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="5.28515625" style="1"/>
-    <col min="8711" max="8711" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="6.140625" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8964" width="5.28515625" style="1"/>
-    <col min="8965" max="8965" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="5.28515625" style="1"/>
-    <col min="8967" max="8967" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="6.140625" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8970" max="9220" width="5.28515625" style="1"/>
-    <col min="9221" max="9221" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="5.28515625" style="1"/>
-    <col min="9223" max="9223" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="6.140625" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9476" width="5.28515625" style="1"/>
-    <col min="9477" max="9477" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="5.28515625" style="1"/>
-    <col min="9479" max="9479" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="6.140625" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9732" width="5.28515625" style="1"/>
-    <col min="9733" max="9733" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="5.28515625" style="1"/>
-    <col min="9735" max="9735" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="6.140625" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9988" width="5.28515625" style="1"/>
-    <col min="9989" max="9989" width="7.28515625" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="5.28515625" style="1"/>
-    <col min="9991" max="9991" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="6.140625" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9994" max="10244" width="5.28515625" style="1"/>
-    <col min="10245" max="10245" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="5.28515625" style="1"/>
-    <col min="10247" max="10247" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="6.140625" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10500" width="5.28515625" style="1"/>
-    <col min="10501" max="10501" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="5.28515625" style="1"/>
-    <col min="10503" max="10503" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="6.140625" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10756" width="5.28515625" style="1"/>
-    <col min="10757" max="10757" width="7.28515625" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="5.28515625" style="1"/>
-    <col min="10759" max="10759" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="6.140625" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10762" max="11012" width="5.28515625" style="1"/>
-    <col min="11013" max="11013" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="5.28515625" style="1"/>
-    <col min="11015" max="11015" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="6.140625" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11268" width="5.28515625" style="1"/>
-    <col min="11269" max="11269" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="5.28515625" style="1"/>
-    <col min="11271" max="11271" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="6.140625" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11524" width="5.28515625" style="1"/>
-    <col min="11525" max="11525" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="5.28515625" style="1"/>
-    <col min="11527" max="11527" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="6.140625" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11780" width="5.28515625" style="1"/>
-    <col min="11781" max="11781" width="7.28515625" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="5.28515625" style="1"/>
-    <col min="11783" max="11783" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="6.140625" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11786" max="12036" width="5.28515625" style="1"/>
-    <col min="12037" max="12037" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="5.28515625" style="1"/>
-    <col min="12039" max="12039" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="6.140625" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12292" width="5.28515625" style="1"/>
-    <col min="12293" max="12293" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="5.28515625" style="1"/>
-    <col min="12295" max="12295" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="6.140625" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12548" width="5.28515625" style="1"/>
-    <col min="12549" max="12549" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="5.28515625" style="1"/>
-    <col min="12551" max="12551" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="6.140625" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12804" width="5.28515625" style="1"/>
-    <col min="12805" max="12805" width="7.28515625" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="5.28515625" style="1"/>
-    <col min="12807" max="12807" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="6.140625" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12810" max="13060" width="5.28515625" style="1"/>
-    <col min="13061" max="13061" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="5.28515625" style="1"/>
-    <col min="13063" max="13063" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="6.140625" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13316" width="5.28515625" style="1"/>
-    <col min="13317" max="13317" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="5.28515625" style="1"/>
-    <col min="13319" max="13319" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="6.140625" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13572" width="5.28515625" style="1"/>
-    <col min="13573" max="13573" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="5.28515625" style="1"/>
-    <col min="13575" max="13575" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="6.140625" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13828" width="5.28515625" style="1"/>
-    <col min="13829" max="13829" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="5.28515625" style="1"/>
-    <col min="13831" max="13831" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="6.140625" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13834" max="14084" width="5.28515625" style="1"/>
-    <col min="14085" max="14085" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="5.28515625" style="1"/>
-    <col min="14087" max="14087" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="6.140625" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14340" width="5.28515625" style="1"/>
-    <col min="14341" max="14341" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="5.28515625" style="1"/>
-    <col min="14343" max="14343" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="6.140625" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14596" width="5.28515625" style="1"/>
-    <col min="14597" max="14597" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="5.28515625" style="1"/>
-    <col min="14599" max="14599" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="6.140625" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14852" width="5.28515625" style="1"/>
-    <col min="14853" max="14853" width="7.28515625" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="5.28515625" style="1"/>
-    <col min="14855" max="14855" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="6.140625" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14858" max="15108" width="5.28515625" style="1"/>
-    <col min="15109" max="15109" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="5.28515625" style="1"/>
-    <col min="15111" max="15111" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="6.140625" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15364" width="5.28515625" style="1"/>
-    <col min="15365" max="15365" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="5.28515625" style="1"/>
-    <col min="15367" max="15367" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="6.140625" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15620" width="5.28515625" style="1"/>
-    <col min="15621" max="15621" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="5.28515625" style="1"/>
-    <col min="15623" max="15623" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="6.140625" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15876" width="5.28515625" style="1"/>
-    <col min="15877" max="15877" width="7.28515625" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="5.28515625" style="1"/>
-    <col min="15879" max="15879" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="6.140625" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15882" max="16132" width="5.28515625" style="1"/>
-    <col min="16133" max="16133" width="7.28515625" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="5.28515625" style="1"/>
-    <col min="16135" max="16135" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="6.140625" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16384" width="5.28515625" style="1"/>
+    <col min="11" max="11" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="260" width="5.33203125" style="1"/>
+    <col min="261" max="261" width="7.33203125" style="1" customWidth="1"/>
+    <col min="262" max="262" width="5.33203125" style="1"/>
+    <col min="263" max="263" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="6.1640625" style="1" customWidth="1"/>
+    <col min="265" max="265" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="516" width="5.33203125" style="1"/>
+    <col min="517" max="517" width="7.33203125" style="1" customWidth="1"/>
+    <col min="518" max="518" width="5.33203125" style="1"/>
+    <col min="519" max="519" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="6.1640625" style="1" customWidth="1"/>
+    <col min="521" max="521" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="772" width="5.33203125" style="1"/>
+    <col min="773" max="773" width="7.33203125" style="1" customWidth="1"/>
+    <col min="774" max="774" width="5.33203125" style="1"/>
+    <col min="775" max="775" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="6.1640625" style="1" customWidth="1"/>
+    <col min="777" max="777" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="1028" width="5.33203125" style="1"/>
+    <col min="1029" max="1029" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="5.33203125" style="1"/>
+    <col min="1031" max="1031" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1284" width="5.33203125" style="1"/>
+    <col min="1285" max="1285" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="5.33203125" style="1"/>
+    <col min="1287" max="1287" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1540" width="5.33203125" style="1"/>
+    <col min="1541" max="1541" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="5.33203125" style="1"/>
+    <col min="1543" max="1543" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1796" width="5.33203125" style="1"/>
+    <col min="1797" max="1797" width="7.33203125" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="5.33203125" style="1"/>
+    <col min="1799" max="1799" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="6.1640625" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="2052" width="5.33203125" style="1"/>
+    <col min="2053" max="2053" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="5.33203125" style="1"/>
+    <col min="2055" max="2055" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2308" width="5.33203125" style="1"/>
+    <col min="2309" max="2309" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="5.33203125" style="1"/>
+    <col min="2311" max="2311" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2564" width="5.33203125" style="1"/>
+    <col min="2565" max="2565" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="5.33203125" style="1"/>
+    <col min="2567" max="2567" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2820" width="5.33203125" style="1"/>
+    <col min="2821" max="2821" width="7.33203125" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="5.33203125" style="1"/>
+    <col min="2823" max="2823" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="6.1640625" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="3076" width="5.33203125" style="1"/>
+    <col min="3077" max="3077" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="5.33203125" style="1"/>
+    <col min="3079" max="3079" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3332" width="5.33203125" style="1"/>
+    <col min="3333" max="3333" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="5.33203125" style="1"/>
+    <col min="3335" max="3335" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3588" width="5.33203125" style="1"/>
+    <col min="3589" max="3589" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="5.33203125" style="1"/>
+    <col min="3591" max="3591" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3844" width="5.33203125" style="1"/>
+    <col min="3845" max="3845" width="7.33203125" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="5.33203125" style="1"/>
+    <col min="3847" max="3847" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="6.1640625" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="4100" width="5.33203125" style="1"/>
+    <col min="4101" max="4101" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="5.33203125" style="1"/>
+    <col min="4103" max="4103" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4356" width="5.33203125" style="1"/>
+    <col min="4357" max="4357" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="5.33203125" style="1"/>
+    <col min="4359" max="4359" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4612" width="5.33203125" style="1"/>
+    <col min="4613" max="4613" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="5.33203125" style="1"/>
+    <col min="4615" max="4615" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4868" width="5.33203125" style="1"/>
+    <col min="4869" max="4869" width="7.33203125" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="5.33203125" style="1"/>
+    <col min="4871" max="4871" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="5124" width="5.33203125" style="1"/>
+    <col min="5125" max="5125" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="5.33203125" style="1"/>
+    <col min="5127" max="5127" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5380" width="5.33203125" style="1"/>
+    <col min="5381" max="5381" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="5.33203125" style="1"/>
+    <col min="5383" max="5383" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5636" width="5.33203125" style="1"/>
+    <col min="5637" max="5637" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="5.33203125" style="1"/>
+    <col min="5639" max="5639" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5892" width="5.33203125" style="1"/>
+    <col min="5893" max="5893" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="5.33203125" style="1"/>
+    <col min="5895" max="5895" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="6.1640625" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="6148" width="5.33203125" style="1"/>
+    <col min="6149" max="6149" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="5.33203125" style="1"/>
+    <col min="6151" max="6151" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6404" width="5.33203125" style="1"/>
+    <col min="6405" max="6405" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="5.33203125" style="1"/>
+    <col min="6407" max="6407" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6660" width="5.33203125" style="1"/>
+    <col min="6661" max="6661" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="5.33203125" style="1"/>
+    <col min="6663" max="6663" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6916" width="5.33203125" style="1"/>
+    <col min="6917" max="6917" width="7.33203125" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="5.33203125" style="1"/>
+    <col min="6919" max="6919" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="7172" width="5.33203125" style="1"/>
+    <col min="7173" max="7173" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="5.33203125" style="1"/>
+    <col min="7175" max="7175" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7428" width="5.33203125" style="1"/>
+    <col min="7429" max="7429" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="5.33203125" style="1"/>
+    <col min="7431" max="7431" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7684" width="5.33203125" style="1"/>
+    <col min="7685" max="7685" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="5.33203125" style="1"/>
+    <col min="7687" max="7687" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7940" width="5.33203125" style="1"/>
+    <col min="7941" max="7941" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="5.33203125" style="1"/>
+    <col min="7943" max="7943" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="8196" width="5.33203125" style="1"/>
+    <col min="8197" max="8197" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="5.33203125" style="1"/>
+    <col min="8199" max="8199" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8452" width="5.33203125" style="1"/>
+    <col min="8453" max="8453" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="5.33203125" style="1"/>
+    <col min="8455" max="8455" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8708" width="5.33203125" style="1"/>
+    <col min="8709" max="8709" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="5.33203125" style="1"/>
+    <col min="8711" max="8711" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8964" width="5.33203125" style="1"/>
+    <col min="8965" max="8965" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="5.33203125" style="1"/>
+    <col min="8967" max="8967" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="6.1640625" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="9220" width="5.33203125" style="1"/>
+    <col min="9221" max="9221" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="5.33203125" style="1"/>
+    <col min="9223" max="9223" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9476" width="5.33203125" style="1"/>
+    <col min="9477" max="9477" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="5.33203125" style="1"/>
+    <col min="9479" max="9479" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9732" width="5.33203125" style="1"/>
+    <col min="9733" max="9733" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="5.33203125" style="1"/>
+    <col min="9735" max="9735" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9988" width="5.33203125" style="1"/>
+    <col min="9989" max="9989" width="7.33203125" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="5.33203125" style="1"/>
+    <col min="9991" max="9991" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="6.1640625" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="10244" width="5.33203125" style="1"/>
+    <col min="10245" max="10245" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="5.33203125" style="1"/>
+    <col min="10247" max="10247" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10500" width="5.33203125" style="1"/>
+    <col min="10501" max="10501" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="5.33203125" style="1"/>
+    <col min="10503" max="10503" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10756" width="5.33203125" style="1"/>
+    <col min="10757" max="10757" width="7.33203125" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="5.33203125" style="1"/>
+    <col min="10759" max="10759" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="6.1640625" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="11012" width="5.33203125" style="1"/>
+    <col min="11013" max="11013" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="5.33203125" style="1"/>
+    <col min="11015" max="11015" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11268" width="5.33203125" style="1"/>
+    <col min="11269" max="11269" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="5.33203125" style="1"/>
+    <col min="11271" max="11271" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11524" width="5.33203125" style="1"/>
+    <col min="11525" max="11525" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="5.33203125" style="1"/>
+    <col min="11527" max="11527" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11780" width="5.33203125" style="1"/>
+    <col min="11781" max="11781" width="7.33203125" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="5.33203125" style="1"/>
+    <col min="11783" max="11783" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="6.1640625" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="12036" width="5.33203125" style="1"/>
+    <col min="12037" max="12037" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="5.33203125" style="1"/>
+    <col min="12039" max="12039" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12292" width="5.33203125" style="1"/>
+    <col min="12293" max="12293" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="5.33203125" style="1"/>
+    <col min="12295" max="12295" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12548" width="5.33203125" style="1"/>
+    <col min="12549" max="12549" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="5.33203125" style="1"/>
+    <col min="12551" max="12551" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12804" width="5.33203125" style="1"/>
+    <col min="12805" max="12805" width="7.33203125" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="5.33203125" style="1"/>
+    <col min="12807" max="12807" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="6.1640625" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="13060" width="5.33203125" style="1"/>
+    <col min="13061" max="13061" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="5.33203125" style="1"/>
+    <col min="13063" max="13063" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13316" width="5.33203125" style="1"/>
+    <col min="13317" max="13317" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="5.33203125" style="1"/>
+    <col min="13319" max="13319" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13572" width="5.33203125" style="1"/>
+    <col min="13573" max="13573" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="5.33203125" style="1"/>
+    <col min="13575" max="13575" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13828" width="5.33203125" style="1"/>
+    <col min="13829" max="13829" width="7.33203125" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="5.33203125" style="1"/>
+    <col min="13831" max="13831" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="6.1640625" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="14084" width="5.33203125" style="1"/>
+    <col min="14085" max="14085" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="5.33203125" style="1"/>
+    <col min="14087" max="14087" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14340" width="5.33203125" style="1"/>
+    <col min="14341" max="14341" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="5.33203125" style="1"/>
+    <col min="14343" max="14343" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14596" width="5.33203125" style="1"/>
+    <col min="14597" max="14597" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="5.33203125" style="1"/>
+    <col min="14599" max="14599" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14852" width="5.33203125" style="1"/>
+    <col min="14853" max="14853" width="7.33203125" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="5.33203125" style="1"/>
+    <col min="14855" max="14855" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="6.1640625" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="15108" width="5.33203125" style="1"/>
+    <col min="15109" max="15109" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="5.33203125" style="1"/>
+    <col min="15111" max="15111" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15364" width="5.33203125" style="1"/>
+    <col min="15365" max="15365" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="5.33203125" style="1"/>
+    <col min="15367" max="15367" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15620" width="5.33203125" style="1"/>
+    <col min="15621" max="15621" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="5.33203125" style="1"/>
+    <col min="15623" max="15623" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15876" width="5.33203125" style="1"/>
+    <col min="15877" max="15877" width="7.33203125" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="5.33203125" style="1"/>
+    <col min="15879" max="15879" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="6.1640625" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="16132" width="5.33203125" style="1"/>
+    <col min="16133" max="16133" width="7.33203125" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="5.33203125" style="1"/>
+    <col min="16135" max="16135" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="6.1640625" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16384" width="5.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="36" customFormat="1">
+    <row r="1" spans="1:18" s="36" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="str">
         <f>$C$6</f>
         <v>MIDLAND ENERGY RESOURCES</v>
@@ -1560,13 +2749,13 @@
         <v>Comparable Companies</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1">
+    <row r="2" spans="1:18" s="38" customFormat="1" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R2" s="39"/>
     </row>
-    <row r="3" spans="1:18" s="40" customFormat="1" ht="16">
+    <row r="3" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R3" s="41"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1574,7 +2763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1582,7 +2771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +2779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1598,13 +2787,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="43" customFormat="1">
+    <row r="51" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R51" s="44" t="str">
         <f>$C$9</f>
         <v>Harvard Business Publishing</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="19">
+    <row r="52" spans="1:18" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="36" t="str">
         <f>$C$6</f>
         <v>MIDLAND ENERGY RESOURCES</v>
@@ -1633,7 +2822,7 @@
         <v>Comparable Companies</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="2" customHeight="1">
+    <row r="53" spans="1:18" ht="2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -1653,7 +2842,7 @@
       <c r="Q53" s="38"/>
       <c r="R53" s="39"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -1673,7 +2862,7 @@
       <c r="Q54" s="40"/>
       <c r="R54" s="41"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -1697,7 +2886,7 @@
       <c r="K56" s="29"/>
       <c r="L56" s="29"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>37</v>
       </c>
@@ -1729,7 +2918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>44</v>
       </c>
@@ -1764,7 +2953,7 @@
       </c>
       <c r="M58" s="46"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>45</v>
       </c>
@@ -1798,7 +2987,7 @@
         <v>4.7939925868322373</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>46</v>
       </c>
@@ -1832,7 +3021,7 @@
         <v>3.35772468490353</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>47</v>
       </c>
@@ -1866,7 +3055,7 @@
         <v>3.1739692770662313</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="61" t="s">
         <v>48</v>
       </c>
@@ -1891,7 +3080,7 @@
         <v>3.7013046928272724</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -1905,7 +3094,7 @@
       <c r="K63" s="29"/>
       <c r="L63" s="29"/>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>49</v>
       </c>
@@ -1921,7 +3110,7 @@
       <c r="K64" s="29"/>
       <c r="L64" s="29"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>50</v>
       </c>
@@ -1955,7 +3144,7 @@
         <v>0.41414165869818031</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
         <v>51</v>
       </c>
@@ -1989,7 +3178,7 @@
         <v>0.27429606819294844</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>52</v>
       </c>
@@ -2023,7 +3212,7 @@
         <v>0.35127021261599645</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>53</v>
       </c>
@@ -2057,7 +3246,7 @@
         <v>0.11465508640781165</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +3280,7 @@
         <v>0.49461103601418033</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>55</v>
       </c>
@@ -2125,7 +3314,7 @@
         <v>0.65688785540555428</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>56</v>
       </c>
@@ -2159,7 +3348,7 @@
         <v>1.2480051347083678</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="61" t="s">
         <v>48</v>
       </c>
@@ -2184,7 +3373,7 @@
         <v>0.50769529314900563</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -2198,7 +3387,7 @@
       <c r="K73" s="29"/>
       <c r="L73" s="29"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>57</v>
       </c>
@@ -2226,38 +3415,38 @@
       <c r="K74" s="29"/>
       <c r="L74" s="56"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E75" s="3"/>
       <c r="G75" s="47"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E76" s="3"/>
       <c r="G76" s="47"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F77" s="48"/>
       <c r="H77" s="25"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H78" s="25"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E79" s="49"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="7:13">
+    <row r="81" spans="7:13" x14ac:dyDescent="0.2">
       <c r="H81" s="9"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="86" spans="7:13">
+    <row r="86" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G86" s="45"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="M86" s="25"/>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="43"/>
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
@@ -2290,17 +3479,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -2311,7 +3500,7 @@
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -2322,7 +3511,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +3522,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +3533,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2356,14 +3545,14 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>4</v>
       </c>
@@ -2372,7 +3561,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +3574,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>67</v>
       </c>
@@ -2398,7 +3587,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +3600,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2419,7 +3608,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
         <v>6</v>
       </c>
@@ -2429,7 +3618,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +3631,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>8</v>
       </c>
@@ -2454,7 +3643,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2467,7 +3656,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2476,12 +3665,12 @@
         <v>0.1123</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +3679,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>11</v>
       </c>
@@ -2498,7 +3687,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +3700,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2524,7 +3713,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2532,7 +3721,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>12</v>
       </c>
@@ -2542,7 +3731,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +3744,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
@@ -2568,7 +3757,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="30" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +3770,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>14</v>
       </c>
@@ -2590,7 +3779,7 @@
         <v>0.61167251811038981</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>15</v>
       </c>
@@ -2599,7 +3788,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>12</v>
       </c>
@@ -2608,21 +3797,21 @@
         <v>8.0876540165492741E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B33" s="26">
         <f>B27 * B22 + B28 * B16</f>
         <v>8.900035108662338E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>13</v>
       </c>
@@ -2630,7 +3819,7 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>14</v>
       </c>
@@ -2642,16 +3831,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B36" s="26">
         <f>B34 / B35</f>
         <v>0.73010380622837356</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>10</v>
       </c>
@@ -2660,7 +3849,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>6</v>
       </c>
@@ -2669,7 +3858,7 @@
         <v>0.10579299495955602</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>15</v>
       </c>
@@ -2678,7 +3867,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>12</v>
       </c>
@@ -2701,16 +3890,16 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2718,7 +3907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
@@ -2732,7 +3921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2762,7 +3951,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +3977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2818,7 +4007,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2848,7 +4037,7 @@
         <v>5.4800000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2876,7 +4065,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2892,7 +4081,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2908,7 +4097,7 @@
         <v>8.5954799999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2921,214 +4110,667 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="S3:AG54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="K10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF29" sqref="AF29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="18" width="5.83203125" style="69"/>
+    <col min="19" max="19" width="15.6640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.83203125" style="69"/>
+    <col min="23" max="23" width="7.6640625" style="69" customWidth="1"/>
+    <col min="24" max="25" width="5.83203125" style="69"/>
+    <col min="26" max="26" width="8" style="69" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.1640625" style="69" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" style="69" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" style="69" customWidth="1"/>
+    <col min="31" max="31" width="5.83203125" style="69"/>
+    <col min="32" max="32" width="9.5" style="69" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="5.83203125" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" t="s">
+    <row r="3" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V3" s="68">
+        <v>5</v>
+      </c>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+    </row>
+    <row r="4" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V4" s="69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V5" s="69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V6" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+    </row>
+    <row r="7" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V7" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="W7" s="72"/>
+      <c r="X7" s="69">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V8" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" s="72"/>
+      <c r="X8" s="69">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V9" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="W9" s="72"/>
+      <c r="X9" s="69">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V10" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="W10" s="72"/>
+      <c r="X10" s="69">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V11" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="W11" s="72"/>
+      <c r="X11" s="69">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="12" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V12" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" s="72"/>
+      <c r="X12" s="69">
+        <v>0.91</v>
+      </c>
+      <c r="AA12" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="13" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V13" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="74"/>
+      <c r="X13" s="75">
+        <f>AVERAGE(X7:X12)</f>
+        <v>0.86</v>
+      </c>
+      <c r="Z13" s="69" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA13" s="69">
+        <f>(1-X20)*X13+X20*X19</f>
+        <v>0.53600000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="Y15" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="22:33" x14ac:dyDescent="0.15">
+      <c r="V16" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="X16" s="76">
+        <v>0.4</v>
+      </c>
+      <c r="Y16" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z16" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB16" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC16" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD16" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE16" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" s="77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V17" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="X17" s="70">
+        <f>[1]Others!Q7</f>
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="Y17" s="76">
+        <f>$Y$15-Z17</f>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="69">
+        <f>AA13</f>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AB17" s="79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="70">
+        <f>$X$17 + AB17 * $X$18</f>
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="AD17" s="70">
+        <f>X17+AA17*X18</f>
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="AE17" s="80">
+        <f>AC17*Z17*(1-$X$16)+AD17*(1-Z17)</f>
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="AG17" s="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V18" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="X18" s="76">
+        <f>[1]Others!Q5</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y18" s="76">
+        <f t="shared" ref="Y18:Y27" si="0">$Y$15-Z18</f>
+        <v>0.9</v>
+      </c>
+      <c r="Z18" s="78">
+        <v>0.1</v>
+      </c>
+      <c r="AA18" s="81">
+        <f>$AA$13+Z18/Y18*($AA$13-AB18)</f>
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="AB18" s="79">
+        <f>$AB$27 * (1 - Y18)</f>
+        <v>5.3599999999999988E-2</v>
+      </c>
+      <c r="AC18" s="70">
+        <f>$X$17 + AB18 * $X$18</f>
+        <v>5.2479999999999999E-2</v>
+      </c>
+      <c r="AD18" s="70">
+        <f>$AD$17+($AD$17-AC18)*(1-$X$16)*Z18/(1-Z18)</f>
+        <v>7.8208E-2</v>
+      </c>
+      <c r="AE18" s="80">
+        <f>AC18*Z18*(1-$X$16)+AD18*(1-Z18)</f>
+        <v>7.353599999999999E-2</v>
+      </c>
+      <c r="AG18" s="69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V19" s="69" t="s">
+        <v>93</v>
+      </c>
+      <c r="X19" s="69">
+        <f>[1]Others!P47</f>
+        <v>0.05</v>
+      </c>
+      <c r="Y19" s="76">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z19" s="78">
+        <v>0.2</v>
+      </c>
+      <c r="AA19" s="81">
+        <f>$AA$13+Z19/Y19*($AA$13-AB19)</f>
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="AB19" s="79">
+        <f>$AB$27 * (1 - Y19)</f>
+        <v>0.10719999999999998</v>
+      </c>
+      <c r="AC19" s="70">
+        <f>$X$17 + AB19 * $X$18</f>
+        <v>5.5159999999999994E-2</v>
+      </c>
+      <c r="AD19" s="70">
+        <f>$AD$17+($AD$17-AC19)*(1-$X$16)*Z19/(1-Z19)</f>
+        <v>7.9815999999999998E-2</v>
+      </c>
+      <c r="AE19" s="80">
+        <f>AC19*Z19*(1-$X$16)+AD19*(1-Z19)</f>
+        <v>7.0472000000000007E-2</v>
+      </c>
+      <c r="AG19" s="69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V20" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20" s="76">
+        <f>[1]Others!P46</f>
+        <v>0.4</v>
+      </c>
+      <c r="Y20" s="76">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="Z20" s="78">
+        <v>0.3</v>
+      </c>
+      <c r="AA20" s="81">
+        <f>$AA$13+Z20/Y20*($AA$13-AB20)</f>
+        <v>0.69680000000000009</v>
+      </c>
+      <c r="AB20" s="79">
+        <f>$AB$27 * (1 - Y20)</f>
+        <v>0.16080000000000003</v>
+      </c>
+      <c r="AC20" s="70">
+        <f>$X$17 + AB20 * $X$18</f>
+        <v>5.7840000000000003E-2</v>
+      </c>
+      <c r="AD20" s="70">
+        <f>$AD$17+($AD$17-AC20)*(1-$X$16)*Z20/(1-Z20)</f>
+        <v>8.1423999999999996E-2</v>
+      </c>
+      <c r="AE20" s="80">
+        <f>AC20*Z20*(1-$X$16)+AD20*(1-Z20)</f>
+        <v>6.7407999999999996E-2</v>
+      </c>
+      <c r="AG20" s="69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="Y21" s="76">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z21" s="82">
+        <v>0.4</v>
+      </c>
+      <c r="AA21" s="83">
+        <f>$AA$13+Z21/Y21*($AA$13-AB21)</f>
+        <v>0.75040000000000007</v>
+      </c>
+      <c r="AB21" s="84">
+        <f>$AB$27 * (1 - Y21)</f>
+        <v>0.21440000000000003</v>
+      </c>
+      <c r="AC21" s="85">
+        <f>$X$17 + AB21 * $X$18</f>
+        <v>6.0519999999999997E-2</v>
+      </c>
+      <c r="AD21" s="85">
+        <f>$AD$17+($AD$17-AC21)*(1-$X$16)*Z21/(1-Z21)</f>
+        <v>8.3032000000000009E-2</v>
+      </c>
+      <c r="AE21" s="86">
+        <f>AC21*Z21*(1-$X$16)+AD21*(1-Z21)</f>
+        <v>6.4343999999999998E-2</v>
+      </c>
+      <c r="AG21" s="69">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
+    </row>
+    <row r="22" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V22" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="X22" s="70">
+        <f>X17+X18*X13</f>
+        <v>9.2799999999999994E-2</v>
+      </c>
+      <c r="Y22" s="76">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z22" s="78">
+        <v>0.5</v>
+      </c>
+      <c r="AA22" s="81">
+        <f>$AA$13+Z22/Y22*($AA$13-AB22)</f>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="AB22" s="79">
+        <f>$AB$27 * (1 - Y22)</f>
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AC22" s="70">
+        <f>$X$17 + AB22 * $X$18</f>
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="AD22" s="70">
+        <f>$AD$17+($AD$17-AC22)*(1-$X$16)*Z22/(1-Z22)</f>
+        <v>8.4639999999999993E-2</v>
+      </c>
+      <c r="AE22" s="80">
+        <f>AC22*Z22*(1-$X$16)+AD22*(1-Z22)</f>
+        <v>6.1280000000000001E-2</v>
+      </c>
+      <c r="AG22" s="69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V23" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="X23" s="70">
+        <f>X17+X19*X18</f>
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="Y23" s="76">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z23" s="78">
+        <v>0.6</v>
+      </c>
+      <c r="AA23" s="81">
+        <f>$AA$13+Z23/Y23*($AA$13-AB23)</f>
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="AB23" s="79">
+        <f>$AB$27 * (1 - Y23)</f>
+        <v>0.3216</v>
+      </c>
+      <c r="AC23" s="70">
+        <f>$X$17 + AB23 * $X$18</f>
+        <v>6.5879999999999994E-2</v>
+      </c>
+      <c r="AD23" s="70">
+        <f>$AD$17+($AD$17-AC23)*(1-$X$16)*Z23/(1-Z23)</f>
+        <v>8.6248000000000005E-2</v>
+      </c>
+      <c r="AE23" s="80">
+        <f>AC23*Z23*(1-$X$16)+AD23*(1-Z23)</f>
+        <v>5.8215999999999997E-2</v>
+      </c>
+      <c r="AG23" s="69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="V24" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="X24" s="70">
+        <f>X22*(1-X20) + X23*X20</f>
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="Y24" s="76">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="Z24" s="78">
+        <v>0.7</v>
+      </c>
+      <c r="AA24" s="81">
+        <f>$AA$13+Z24/Y24*($AA$13-AB24)</f>
+        <v>0.91120000000000012</v>
+      </c>
+      <c r="AB24" s="79">
+        <f>$AB$27 * (1 - Y24)</f>
+        <v>0.37519999999999998</v>
+      </c>
+      <c r="AC24" s="70">
+        <f>$X$17 + AB24 * $X$18</f>
+        <v>6.8559999999999996E-2</v>
+      </c>
+      <c r="AD24" s="70">
+        <f>$AD$17+($AD$17-AC24)*(1-$X$16)*Z24/(1-Z24)</f>
+        <v>8.7856000000000004E-2</v>
+      </c>
+      <c r="AE24" s="80">
+        <f>AC24*Z24*(1-$X$16)+AD24*(1-Z24)</f>
+        <v>5.5152E-2</v>
+      </c>
+      <c r="AG24" s="69">
         <v>70</v>
       </c>
-      <c r="B2">
-        <v>75.38</v>
-      </c>
-      <c r="C2" s="68">
-        <f>2157780998 / 1000000</f>
-        <v>2157.7809980000002</v>
-      </c>
-      <c r="D2">
-        <f>B2 * C2</f>
-        <v>162653.53162923999</v>
-      </c>
-      <c r="E2">
-        <v>10493</v>
-      </c>
-      <c r="F2">
-        <v>2159</v>
-      </c>
-      <c r="G2">
-        <v>28409</v>
-      </c>
-      <c r="H2">
-        <f>F2 + G2 - E2</f>
-        <v>20075</v>
-      </c>
-      <c r="I2" s="26">
-        <f>H2 / D2</f>
-        <v>0.12342185133588053</v>
-      </c>
-      <c r="K2">
-        <v>204892</v>
-      </c>
-      <c r="L2">
-        <v>17138</v>
-      </c>
-      <c r="M2" s="70">
-        <f>D2 + H2</f>
-        <v>182728.53162923999</v>
-      </c>
-      <c r="N2" s="69">
-        <f>M2 / K2</f>
-        <v>0.89182853224742786</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3">
-        <v>77.3</v>
-      </c>
-      <c r="C3" s="68">
-        <v>8019</v>
-      </c>
-      <c r="D3">
-        <f>B3 * C3</f>
-        <v>619868.69999999995</v>
-      </c>
-      <c r="E3">
-        <v>28244</v>
-      </c>
-      <c r="F3">
+    </row>
+    <row r="25" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="Y25" s="76">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Z25" s="78">
+        <v>0.8</v>
+      </c>
+      <c r="AA25" s="81">
+        <f>$AA$13+Z25/Y25*($AA$13-AB25)</f>
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="AB25" s="79">
+        <f>$AB$27 * (1 - Y25)</f>
+        <v>0.42880000000000007</v>
+      </c>
+      <c r="AC25" s="70">
+        <f>$X$17 + AB25 * $X$18</f>
+        <v>7.1239999999999998E-2</v>
+      </c>
+      <c r="AD25" s="70">
+        <f>$AD$17+($AD$17-AC25)*(1-$X$16)*Z25/(1-Z25)</f>
+        <v>8.9464000000000016E-2</v>
+      </c>
+      <c r="AE25" s="80">
+        <f>AC25*Z25*(1-$X$16)+AD25*(1-Z25)</f>
+        <v>5.2088000000000002E-2</v>
+      </c>
+      <c r="AG25" s="69">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="Y26" s="76">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="Z26" s="78">
+        <v>0.9</v>
+      </c>
+      <c r="AA26" s="81">
+        <f>$AA$13+Z26/Y26*($AA$13-AB26)</f>
+        <v>1.0184</v>
+      </c>
+      <c r="AB26" s="79">
+        <f>$AB$27 * (1 - Y26)</f>
+        <v>0.48240000000000005</v>
+      </c>
+      <c r="AC26" s="70">
+        <f>$X$17 + AB26 * $X$18</f>
+        <v>7.392E-2</v>
+      </c>
+      <c r="AD26" s="70">
+        <f>$AD$17+($AD$17-AC26)*(1-$X$16)*Z26/(1-Z26)</f>
+        <v>9.1072000000000014E-2</v>
+      </c>
+      <c r="AE26" s="80">
+        <f>AC26*Z26*(1-$X$16)+AD26*(1-Z26)</f>
+        <v>4.9023999999999998E-2</v>
+      </c>
+      <c r="AG26" s="69">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="Y27" s="76">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G3">
-        <v>13941</v>
-      </c>
-      <c r="H3">
-        <f>F3 + G3 - E3</f>
-        <v>-14303</v>
-      </c>
-      <c r="I3" s="26">
-        <f>H3 / D3</f>
-        <v>-2.3074241367567038E-2</v>
-      </c>
-      <c r="K3">
-        <v>365467</v>
-      </c>
-      <c r="L3">
-        <v>39500</v>
-      </c>
-      <c r="M3" s="70">
-        <f>D3 + H3</f>
-        <v>605565.69999999995</v>
-      </c>
-      <c r="N3" s="69">
-        <f>M3 / K3</f>
-        <v>1.6569641034621456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4">
-        <v>74.66</v>
-      </c>
-      <c r="C4" s="68">
-        <v>330.6</v>
-      </c>
-      <c r="D4">
-        <f>B4 * C4</f>
-        <v>24682.596000000001</v>
-      </c>
-      <c r="E4">
-        <v>750</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1073.8</v>
-      </c>
-      <c r="H4">
-        <f>F4 + G4 - E4</f>
-        <v>323.79999999999995</v>
-      </c>
-      <c r="I4" s="26">
-        <f>H4 / D4</f>
-        <v>1.311855527676262E-2</v>
-      </c>
-      <c r="K4">
-        <v>4566.1000000000004</v>
-      </c>
-      <c r="L4">
-        <v>2419</v>
-      </c>
-      <c r="M4" s="70">
-        <f>D4 + H4</f>
-        <v>25006.396000000001</v>
-      </c>
-      <c r="N4" s="69">
-        <f>M4 / K4</f>
-        <v>5.4765327084382731</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="e">
-        <f>AVERAGE(J2:J4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="69">
-        <f>AVERAGE(N2:N4)</f>
-        <v>2.6751084480492824</v>
+      <c r="Z27" s="78">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="81"/>
+      <c r="AB27" s="79">
+        <f>AA13</f>
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AC27" s="70">
+        <f>$X$17 + AB27 * $X$18</f>
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="AD27" s="70"/>
+      <c r="AE27" s="80">
+        <f>AC27*Z27*(1-$X$16)+AD27*(1-Z27)</f>
+        <v>4.5960000000000001E-2</v>
+      </c>
+      <c r="AG27" s="69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="AC28" s="70"/>
+    </row>
+    <row r="29" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="S29" s="87"/>
+      <c r="T29" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="U29" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="W29" s="90" t="s">
+        <v>97</v>
+      </c>
+      <c r="X29" s="88"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="88"/>
+      <c r="AB29" s="91"/>
+      <c r="AC29" s="70"/>
+    </row>
+    <row r="30" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="S30" s="92" t="s">
+        <v>98</v>
+      </c>
+      <c r="T30" s="93"/>
+      <c r="U30" s="94">
+        <f>[1]Others!F8</f>
+        <v>1.35E-2</v>
+      </c>
+      <c r="W30" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="95"/>
+    </row>
+    <row r="31" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="S31" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="T31" s="93"/>
+      <c r="U31" s="96">
+        <f>X17+U30</f>
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="W31" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="95"/>
+    </row>
+    <row r="32" spans="19:33" x14ac:dyDescent="0.15">
+      <c r="S32" s="92" t="s">
+        <v>102</v>
+      </c>
+      <c r="T32" s="93"/>
+      <c r="U32" s="97">
+        <v>2E-3</v>
+      </c>
+      <c r="W32" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="99"/>
+      <c r="Z32" s="99"/>
+      <c r="AA32" s="99"/>
+      <c r="AB32" s="100"/>
+    </row>
+    <row r="33" spans="19:21" x14ac:dyDescent="0.15">
+      <c r="S33" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="T33" s="93"/>
+      <c r="U33" s="95"/>
+    </row>
+    <row r="34" spans="19:21" x14ac:dyDescent="0.15">
+      <c r="S34" s="101"/>
+      <c r="T34" s="102"/>
+      <c r="U34" s="103"/>
+    </row>
+    <row r="54" spans="22:29" x14ac:dyDescent="0.15">
+      <c r="V54" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC54" s="69" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="8">
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3138,20 +4780,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -3161,7 +4803,7 @@
       </c>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +4812,7 @@
         <v>82639.0708193436</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3179,12 +4821,12 @@
         <v>212807.6808193436</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
@@ -3198,7 +4840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -3212,7 +4854,7 @@
         <v>23188.987660783201</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -3225,7 +4867,7 @@
         <v>0.50769529314900563</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -3242,7 +4884,7 @@
         <v>27009.058504179164</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -3259,7 +4901,7 @@
         <v>0.12691768643025464</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3280,7 +4922,7 @@
         <v>8.0876540165492741E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
